--- a/output7/【河洛文讀注音-閩拼調號】《蘭亭集序》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《蘭亭集序》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71BEF4AD-FA2C-4501-9A65-5EBE2A302900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F164541B-13EF-4E68-AB42-88D29E7AD0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -5713,10 +5713,6 @@
     <t>zia3</t>
   </si>
   <si>
-    <t>https://imgs.guwendianji.com/wp-content/uploads/2017/06/1-32.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>閩拼調號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6980,6 +6976,10 @@
   </si>
   <si>
     <t>斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i2.kknews.cc/CbkyGDOCfCaUqzdq7hlOLfp0GA7pqVksGA/0.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11030,7 +11030,7 @@
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -11092,7 +11092,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>1730</v>
+        <v>2079</v>
       </c>
       <c r="D7" s="55"/>
       <c r="E7" s="55"/>
@@ -11164,7 +11164,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="30">
@@ -11188,7 +11188,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="30">
@@ -11196,7 +11196,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="30">
@@ -11229,6 +11229,9 @@
       <formula1>" ,十五音, 雅俗通,方音符號,台語音標, 白話字, 台羅拼音,閩拼調號, 閩拼調符"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{B19A2304-EAC7-43B2-8801-7AB400A79EF4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11289,7 +11292,7 @@
         <v>499</v>
       </c>
       <c r="E3" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -11425,7 +11428,7 @@
         <v>499</v>
       </c>
       <c r="E11" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -11442,7 +11445,7 @@
         <v>499</v>
       </c>
       <c r="E12" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -11476,7 +11479,7 @@
         <v>499</v>
       </c>
       <c r="E14" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -11493,7 +11496,7 @@
         <v>499</v>
       </c>
       <c r="E15" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -11510,7 +11513,7 @@
         <v>499</v>
       </c>
       <c r="E16" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -11527,7 +11530,7 @@
         <v>499</v>
       </c>
       <c r="E17" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -11561,7 +11564,7 @@
         <v>499</v>
       </c>
       <c r="E19" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -11578,7 +11581,7 @@
         <v>499</v>
       </c>
       <c r="E20" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -11595,7 +11598,7 @@
         <v>499</v>
       </c>
       <c r="E21" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -11629,7 +11632,7 @@
         <v>499</v>
       </c>
       <c r="E23" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -11646,7 +11649,7 @@
         <v>499</v>
       </c>
       <c r="E24" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -11697,7 +11700,7 @@
         <v>499</v>
       </c>
       <c r="E27" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -11714,7 +11717,7 @@
         <v>499</v>
       </c>
       <c r="E28" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -11731,7 +11734,7 @@
         <v>499</v>
       </c>
       <c r="E29" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -11765,7 +11768,7 @@
         <v>499</v>
       </c>
       <c r="E31" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -11799,7 +11802,7 @@
         <v>499</v>
       </c>
       <c r="E33" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -11833,7 +11836,7 @@
         <v>499</v>
       </c>
       <c r="E35" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -11867,7 +11870,7 @@
         <v>499</v>
       </c>
       <c r="E37" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -11901,7 +11904,7 @@
         <v>499</v>
       </c>
       <c r="E39" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -11918,7 +11921,7 @@
         <v>499</v>
       </c>
       <c r="E40" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -11935,7 +11938,7 @@
         <v>499</v>
       </c>
       <c r="E41" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -11952,7 +11955,7 @@
         <v>499</v>
       </c>
       <c r="E42" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -11969,7 +11972,7 @@
         <v>499</v>
       </c>
       <c r="E43" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -11986,7 +11989,7 @@
         <v>499</v>
       </c>
       <c r="E44" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -12020,7 +12023,7 @@
         <v>499</v>
       </c>
       <c r="E46" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -12122,7 +12125,7 @@
         <v>499</v>
       </c>
       <c r="E52" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -12139,7 +12142,7 @@
         <v>499</v>
       </c>
       <c r="E53" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -12156,7 +12159,7 @@
         <v>499</v>
       </c>
       <c r="E54" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -12173,7 +12176,7 @@
         <v>499</v>
       </c>
       <c r="E55" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -12190,7 +12193,7 @@
         <v>499</v>
       </c>
       <c r="E56" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -12207,7 +12210,7 @@
         <v>499</v>
       </c>
       <c r="E57" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -12224,7 +12227,7 @@
         <v>499</v>
       </c>
       <c r="E58" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -12241,7 +12244,7 @@
         <v>499</v>
       </c>
       <c r="E59" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -12258,7 +12261,7 @@
         <v>499</v>
       </c>
       <c r="E60" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -12275,7 +12278,7 @@
         <v>499</v>
       </c>
       <c r="E61" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -12292,7 +12295,7 @@
         <v>499</v>
       </c>
       <c r="E62" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -12309,7 +12312,7 @@
         <v>499</v>
       </c>
       <c r="E63" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -12326,7 +12329,7 @@
         <v>499</v>
       </c>
       <c r="E64" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -12343,7 +12346,7 @@
         <v>499</v>
       </c>
       <c r="E65" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -12360,7 +12363,7 @@
         <v>499</v>
       </c>
       <c r="E66" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -12377,7 +12380,7 @@
         <v>499</v>
       </c>
       <c r="E67" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -12394,7 +12397,7 @@
         <v>499</v>
       </c>
       <c r="E68" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -12411,7 +12414,7 @@
         <v>499</v>
       </c>
       <c r="E69" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -12428,7 +12431,7 @@
         <v>499</v>
       </c>
       <c r="E70" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -12445,7 +12448,7 @@
         <v>499</v>
       </c>
       <c r="E71" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -12462,7 +12465,7 @@
         <v>499</v>
       </c>
       <c r="E72" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -12479,7 +12482,7 @@
         <v>499</v>
       </c>
       <c r="E73" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -12496,7 +12499,7 @@
         <v>499</v>
       </c>
       <c r="E74" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -12564,7 +12567,7 @@
         <v>499</v>
       </c>
       <c r="E78" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -12581,7 +12584,7 @@
         <v>499</v>
       </c>
       <c r="E79" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -12598,7 +12601,7 @@
         <v>499</v>
       </c>
       <c r="E80" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -12615,7 +12618,7 @@
         <v>499</v>
       </c>
       <c r="E81" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -12632,7 +12635,7 @@
         <v>499</v>
       </c>
       <c r="E82" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -12649,7 +12652,7 @@
         <v>499</v>
       </c>
       <c r="E83" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -12666,7 +12669,7 @@
         <v>499</v>
       </c>
       <c r="E84" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -12683,7 +12686,7 @@
         <v>499</v>
       </c>
       <c r="E85" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -12700,7 +12703,7 @@
         <v>499</v>
       </c>
       <c r="E86" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -12717,7 +12720,7 @@
         <v>499</v>
       </c>
       <c r="E87" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -12751,7 +12754,7 @@
         <v>499</v>
       </c>
       <c r="E89" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -12768,7 +12771,7 @@
         <v>499</v>
       </c>
       <c r="E90" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -12785,7 +12788,7 @@
         <v>499</v>
       </c>
       <c r="E91" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -12802,7 +12805,7 @@
         <v>499</v>
       </c>
       <c r="E92" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -12836,7 +12839,7 @@
         <v>499</v>
       </c>
       <c r="E94" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -12853,7 +12856,7 @@
         <v>499</v>
       </c>
       <c r="E95" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -12870,7 +12873,7 @@
         <v>499</v>
       </c>
       <c r="E96" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -12887,7 +12890,7 @@
         <v>499</v>
       </c>
       <c r="E97" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -12955,7 +12958,7 @@
         <v>499</v>
       </c>
       <c r="E101" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -12989,7 +12992,7 @@
         <v>499</v>
       </c>
       <c r="E103" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -13006,7 +13009,7 @@
         <v>499</v>
       </c>
       <c r="E104" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -13023,7 +13026,7 @@
         <v>499</v>
       </c>
       <c r="E105" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -13057,7 +13060,7 @@
         <v>499</v>
       </c>
       <c r="E107" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -13074,7 +13077,7 @@
         <v>499</v>
       </c>
       <c r="E108" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -13091,7 +13094,7 @@
         <v>499</v>
       </c>
       <c r="E109" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -13108,7 +13111,7 @@
         <v>499</v>
       </c>
       <c r="E110" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -13125,7 +13128,7 @@
         <v>499</v>
       </c>
       <c r="E111" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -13176,7 +13179,7 @@
         <v>499</v>
       </c>
       <c r="E114" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -13227,7 +13230,7 @@
         <v>499</v>
       </c>
       <c r="E117" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -13244,7 +13247,7 @@
         <v>499</v>
       </c>
       <c r="E118" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -13278,7 +13281,7 @@
         <v>499</v>
       </c>
       <c r="E120" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -13329,7 +13332,7 @@
         <v>499</v>
       </c>
       <c r="E123" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -13380,7 +13383,7 @@
         <v>499</v>
       </c>
       <c r="E126" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -13431,7 +13434,7 @@
         <v>499</v>
       </c>
       <c r="E129" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -13448,7 +13451,7 @@
         <v>499</v>
       </c>
       <c r="E130" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -13482,7 +13485,7 @@
         <v>499</v>
       </c>
       <c r="E132" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -13533,7 +13536,7 @@
         <v>499</v>
       </c>
       <c r="E135" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -13567,7 +13570,7 @@
         <v>499</v>
       </c>
       <c r="E137" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -13584,7 +13587,7 @@
         <v>499</v>
       </c>
       <c r="E138" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -13618,7 +13621,7 @@
         <v>499</v>
       </c>
       <c r="E140" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -13635,7 +13638,7 @@
         <v>499</v>
       </c>
       <c r="E141" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -13652,7 +13655,7 @@
         <v>499</v>
       </c>
       <c r="E142" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -13669,7 +13672,7 @@
         <v>499</v>
       </c>
       <c r="E143" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -13720,7 +13723,7 @@
         <v>499</v>
       </c>
       <c r="E146" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -13754,7 +13757,7 @@
         <v>499</v>
       </c>
       <c r="E148" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -13805,7 +13808,7 @@
         <v>499</v>
       </c>
       <c r="E151" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -13822,7 +13825,7 @@
         <v>499</v>
       </c>
       <c r="E152" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -13839,7 +13842,7 @@
         <v>499</v>
       </c>
       <c r="E153" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -13856,7 +13859,7 @@
         <v>499</v>
       </c>
       <c r="E154" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -13873,7 +13876,7 @@
         <v>499</v>
       </c>
       <c r="E155" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -13890,7 +13893,7 @@
         <v>499</v>
       </c>
       <c r="E156" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -13907,7 +13910,7 @@
         <v>499</v>
       </c>
       <c r="E157" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -13924,7 +13927,7 @@
         <v>499</v>
       </c>
       <c r="E158" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -13941,7 +13944,7 @@
         <v>499</v>
       </c>
       <c r="E159" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -13958,7 +13961,7 @@
         <v>499</v>
       </c>
       <c r="E160" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -13975,7 +13978,7 @@
         <v>499</v>
       </c>
       <c r="E161" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -13992,7 +13995,7 @@
         <v>499</v>
       </c>
       <c r="E162" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -14009,7 +14012,7 @@
         <v>499</v>
       </c>
       <c r="E163" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -14043,7 +14046,7 @@
         <v>499</v>
       </c>
       <c r="E165" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -14060,7 +14063,7 @@
         <v>499</v>
       </c>
       <c r="E166" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -14077,7 +14080,7 @@
         <v>499</v>
       </c>
       <c r="E167" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -14111,7 +14114,7 @@
         <v>499</v>
       </c>
       <c r="E169" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -14128,7 +14131,7 @@
         <v>499</v>
       </c>
       <c r="E170" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -14145,7 +14148,7 @@
         <v>499</v>
       </c>
       <c r="E171" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -14162,7 +14165,7 @@
         <v>499</v>
       </c>
       <c r="E172" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -14213,7 +14216,7 @@
         <v>499</v>
       </c>
       <c r="E175" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -14230,7 +14233,7 @@
         <v>499</v>
       </c>
       <c r="E176" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -14281,7 +14284,7 @@
         <v>499</v>
       </c>
       <c r="E179" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -14366,7 +14369,7 @@
         <v>499</v>
       </c>
       <c r="E184" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -14417,7 +14420,7 @@
         <v>499</v>
       </c>
       <c r="E187" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -14434,7 +14437,7 @@
         <v>499</v>
       </c>
       <c r="E188" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -14451,7 +14454,7 @@
         <v>499</v>
       </c>
       <c r="E189" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -14468,7 +14471,7 @@
         <v>499</v>
       </c>
       <c r="E190" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -14519,7 +14522,7 @@
         <v>499</v>
       </c>
       <c r="E193" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -14570,7 +14573,7 @@
         <v>499</v>
       </c>
       <c r="E196" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -14587,7 +14590,7 @@
         <v>499</v>
       </c>
       <c r="E197" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -14604,7 +14607,7 @@
         <v>499</v>
       </c>
       <c r="E198" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -14621,7 +14624,7 @@
         <v>499</v>
       </c>
       <c r="E199" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -14638,7 +14641,7 @@
         <v>499</v>
       </c>
       <c r="E200" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -14655,7 +14658,7 @@
         <v>499</v>
       </c>
       <c r="E201" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -14672,7 +14675,7 @@
         <v>499</v>
       </c>
       <c r="E202" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -14706,7 +14709,7 @@
         <v>499</v>
       </c>
       <c r="E204" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -14723,7 +14726,7 @@
         <v>499</v>
       </c>
       <c r="E205" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -14740,7 +14743,7 @@
         <v>499</v>
       </c>
       <c r="E206" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
   </sheetData>
@@ -14918,7 +14921,7 @@
       <c r="R3" s="72"/>
       <c r="T3" s="16"/>
       <c r="V3" s="63" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -14970,49 +14973,49 @@
         <v>1</v>
       </c>
       <c r="D5" s="68" t="s">
+        <v>1867</v>
+      </c>
+      <c r="E5" s="68" t="s">
         <v>1868</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="F5" s="68" t="s">
         <v>1869</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="G5" s="68" t="s">
         <v>1870</v>
       </c>
-      <c r="G5" s="68" t="s">
+      <c r="H5" s="68" t="s">
         <v>1871</v>
       </c>
-      <c r="H5" s="68" t="s">
+      <c r="I5" s="68" t="s">
         <v>1872</v>
       </c>
-      <c r="I5" s="68" t="s">
+      <c r="J5" s="68" t="s">
         <v>1873</v>
       </c>
-      <c r="J5" s="68" t="s">
+      <c r="K5" s="68" t="s">
         <v>1874</v>
       </c>
-      <c r="K5" s="68" t="s">
+      <c r="L5" s="68" t="s">
         <v>1875</v>
       </c>
-      <c r="L5" s="68" t="s">
+      <c r="M5" s="68" t="s">
+        <v>1871</v>
+      </c>
+      <c r="N5" s="68" t="s">
         <v>1876</v>
       </c>
-      <c r="M5" s="68" t="s">
-        <v>1872</v>
-      </c>
-      <c r="N5" s="68" t="s">
+      <c r="O5" s="68" t="s">
         <v>1877</v>
       </c>
-      <c r="O5" s="68" t="s">
+      <c r="P5" s="68" t="s">
         <v>1878</v>
       </c>
-      <c r="P5" s="68" t="s">
+      <c r="Q5" s="68" t="s">
         <v>1879</v>
       </c>
-      <c r="Q5" s="68" t="s">
-        <v>1880</v>
-      </c>
       <c r="R5" s="68" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="S5" s="21"/>
       <c r="V5" s="64"/>
@@ -15135,49 +15138,49 @@
         <v>2</v>
       </c>
       <c r="D9" s="68" t="s">
+        <v>1880</v>
+      </c>
+      <c r="E9" s="68" t="s">
         <v>1881</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="F9" s="68" t="s">
+        <v>1880</v>
+      </c>
+      <c r="G9" s="68" t="s">
         <v>1882</v>
       </c>
-      <c r="F9" s="68" t="s">
-        <v>1881</v>
-      </c>
-      <c r="G9" s="68" t="s">
+      <c r="H9" s="68" t="s">
         <v>1883</v>
       </c>
-      <c r="H9" s="68" t="s">
+      <c r="I9" s="68" t="s">
         <v>1884</v>
       </c>
-      <c r="I9" s="68" t="s">
+      <c r="J9" s="68" t="s">
+        <v>1878</v>
+      </c>
+      <c r="K9" s="68" t="s">
         <v>1885</v>
       </c>
-      <c r="J9" s="68" t="s">
-        <v>1879</v>
-      </c>
-      <c r="K9" s="68" t="s">
+      <c r="L9" s="68" t="s">
         <v>1886</v>
       </c>
-      <c r="L9" s="68" t="s">
+      <c r="M9" s="68" t="s">
+        <v>1871</v>
+      </c>
+      <c r="N9" s="68" t="s">
         <v>1887</v>
       </c>
-      <c r="M9" s="68" t="s">
-        <v>1872</v>
-      </c>
-      <c r="N9" s="68" t="s">
+      <c r="O9" s="68" t="s">
         <v>1888</v>
       </c>
-      <c r="O9" s="68" t="s">
+      <c r="P9" s="68" t="s">
         <v>1889</v>
       </c>
-      <c r="P9" s="68" t="s">
+      <c r="Q9" s="68" t="s">
         <v>1890</v>
       </c>
-      <c r="Q9" s="68" t="s">
+      <c r="R9" s="68" t="s">
         <v>1891</v>
-      </c>
-      <c r="R9" s="68" t="s">
-        <v>1892</v>
       </c>
       <c r="S9" s="21"/>
       <c r="T9" s="16"/>
@@ -15301,49 +15304,49 @@
         <v>3</v>
       </c>
       <c r="D13" s="68" t="s">
+        <v>1892</v>
+      </c>
+      <c r="E13" s="68" t="s">
         <v>1893</v>
       </c>
-      <c r="E13" s="68" t="s">
+      <c r="F13" s="68" t="s">
         <v>1894</v>
       </c>
-      <c r="F13" s="68" t="s">
+      <c r="G13" s="68" t="s">
         <v>1895</v>
       </c>
-      <c r="G13" s="68" t="s">
+      <c r="H13" s="68" t="s">
+        <v>1871</v>
+      </c>
+      <c r="I13" s="68" t="s">
         <v>1896</v>
       </c>
-      <c r="H13" s="68" t="s">
-        <v>1872</v>
-      </c>
-      <c r="I13" s="68" t="s">
+      <c r="J13" s="68" t="s">
         <v>1897</v>
       </c>
-      <c r="J13" s="68" t="s">
+      <c r="K13" s="68" t="s">
         <v>1898</v>
       </c>
-      <c r="K13" s="68" t="s">
+      <c r="L13" s="68" t="s">
         <v>1899</v>
       </c>
-      <c r="L13" s="68" t="s">
+      <c r="M13" s="68" t="s">
+        <v>1891</v>
+      </c>
+      <c r="N13" s="68" t="s">
         <v>1900</v>
       </c>
-      <c r="M13" s="68" t="s">
-        <v>1892</v>
-      </c>
-      <c r="N13" s="68" t="s">
+      <c r="O13" s="68" t="s">
         <v>1901</v>
       </c>
-      <c r="O13" s="68" t="s">
+      <c r="P13" s="68" t="s">
         <v>1902</v>
       </c>
-      <c r="P13" s="68" t="s">
+      <c r="Q13" s="68" t="s">
         <v>1903</v>
       </c>
-      <c r="Q13" s="68" t="s">
-        <v>1904</v>
-      </c>
       <c r="R13" s="68" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="S13" s="21"/>
       <c r="V13" s="64"/>
@@ -15464,49 +15467,49 @@
         <v>4</v>
       </c>
       <c r="D17" s="68" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E17" s="68" t="s">
         <v>1905</v>
       </c>
-      <c r="E17" s="68" t="s">
+      <c r="F17" s="68" t="s">
+        <v>1871</v>
+      </c>
+      <c r="G17" s="68" t="s">
         <v>1906</v>
       </c>
-      <c r="F17" s="68" t="s">
-        <v>1872</v>
-      </c>
-      <c r="G17" s="68" t="s">
+      <c r="H17" s="68" t="s">
         <v>1907</v>
       </c>
-      <c r="H17" s="68" t="s">
+      <c r="I17" s="68" t="s">
+        <v>1887</v>
+      </c>
+      <c r="J17" s="68" t="s">
         <v>1908</v>
       </c>
-      <c r="I17" s="68" t="s">
-        <v>1888</v>
-      </c>
-      <c r="J17" s="68" t="s">
+      <c r="K17" s="68" t="s">
         <v>1909</v>
       </c>
-      <c r="K17" s="68" t="s">
+      <c r="L17" s="68" t="s">
         <v>1910</v>
       </c>
-      <c r="L17" s="68" t="s">
+      <c r="M17" s="68" t="s">
+        <v>1902</v>
+      </c>
+      <c r="N17" s="68" t="s">
         <v>1911</v>
       </c>
-      <c r="M17" s="68" t="s">
-        <v>1903</v>
-      </c>
-      <c r="N17" s="68" t="s">
+      <c r="O17" s="68" t="s">
         <v>1912</v>
       </c>
-      <c r="O17" s="68" t="s">
+      <c r="P17" s="68" t="s">
         <v>1913</v>
       </c>
-      <c r="P17" s="68" t="s">
+      <c r="Q17" s="68" t="s">
         <v>1914</v>
       </c>
-      <c r="Q17" s="68" t="s">
-        <v>1915</v>
-      </c>
       <c r="R17" s="68" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="S17" s="21"/>
       <c r="V17" s="64"/>
@@ -15627,49 +15630,49 @@
         <v>5</v>
       </c>
       <c r="D21" s="68" t="s">
+        <v>1915</v>
+      </c>
+      <c r="E21" s="68" t="s">
         <v>1916</v>
       </c>
-      <c r="E21" s="68" t="s">
+      <c r="F21" s="68" t="s">
         <v>1917</v>
       </c>
-      <c r="F21" s="68" t="s">
+      <c r="G21" s="68" t="s">
         <v>1918</v>
       </c>
-      <c r="G21" s="68" t="s">
+      <c r="H21" s="68" t="s">
+        <v>1871</v>
+      </c>
+      <c r="I21" s="68" t="s">
         <v>1919</v>
       </c>
-      <c r="H21" s="68" t="s">
-        <v>1872</v>
-      </c>
-      <c r="I21" s="68" t="s">
+      <c r="J21" s="68" t="s">
         <v>1920</v>
       </c>
-      <c r="J21" s="68" t="s">
+      <c r="K21" s="68" t="s">
         <v>1921</v>
       </c>
-      <c r="K21" s="68" t="s">
+      <c r="L21" s="68" t="s">
+        <v>1912</v>
+      </c>
+      <c r="M21" s="68" t="s">
         <v>1922</v>
       </c>
-      <c r="L21" s="68" t="s">
-        <v>1913</v>
-      </c>
-      <c r="M21" s="68" t="s">
+      <c r="N21" s="68" t="s">
         <v>1923</v>
       </c>
-      <c r="N21" s="68" t="s">
+      <c r="O21" s="68" t="s">
         <v>1924</v>
       </c>
-      <c r="O21" s="68" t="s">
+      <c r="P21" s="68" t="s">
+        <v>1871</v>
+      </c>
+      <c r="Q21" s="68" t="s">
         <v>1925</v>
       </c>
-      <c r="P21" s="68" t="s">
-        <v>1872</v>
-      </c>
-      <c r="Q21" s="68" t="s">
+      <c r="R21" s="68" t="s">
         <v>1926</v>
-      </c>
-      <c r="R21" s="68" t="s">
-        <v>1927</v>
       </c>
       <c r="S21" s="21"/>
       <c r="V21" s="64"/>
@@ -15792,49 +15795,49 @@
         <v>6</v>
       </c>
       <c r="D25" s="68" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E25" s="68" t="s">
         <v>1928</v>
       </c>
-      <c r="E25" s="68" t="s">
+      <c r="F25" s="68" t="s">
+        <v>1891</v>
+      </c>
+      <c r="G25" s="68" t="s">
         <v>1929</v>
       </c>
-      <c r="F25" s="68" t="s">
-        <v>1892</v>
-      </c>
-      <c r="G25" s="68" t="s">
+      <c r="H25" s="68" t="s">
         <v>1930</v>
       </c>
-      <c r="H25" s="68" t="s">
+      <c r="I25" s="68" t="s">
         <v>1931</v>
       </c>
-      <c r="I25" s="68" t="s">
+      <c r="J25" s="68" t="s">
+        <v>1908</v>
+      </c>
+      <c r="K25" s="68" t="s">
         <v>1932</v>
       </c>
-      <c r="J25" s="68" t="s">
-        <v>1909</v>
-      </c>
-      <c r="K25" s="68" t="s">
+      <c r="L25" s="68" t="s">
         <v>1933</v>
       </c>
-      <c r="L25" s="68" t="s">
+      <c r="M25" s="68" t="s">
+        <v>1878</v>
+      </c>
+      <c r="N25" s="68" t="s">
         <v>1934</v>
       </c>
-      <c r="M25" s="68" t="s">
-        <v>1879</v>
-      </c>
-      <c r="N25" s="68" t="s">
+      <c r="O25" s="68" t="s">
+        <v>1871</v>
+      </c>
+      <c r="P25" s="68" t="s">
         <v>1935</v>
       </c>
-      <c r="O25" s="68" t="s">
-        <v>1872</v>
-      </c>
-      <c r="P25" s="68" t="s">
-        <v>1936</v>
-      </c>
       <c r="Q25" s="68" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="R25" s="68" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="S25" s="21"/>
       <c r="V25" s="64"/>
@@ -15955,34 +15958,34 @@
         <v>7</v>
       </c>
       <c r="D29" s="68" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E29" s="68" t="s">
+        <v>1871</v>
+      </c>
+      <c r="F29" s="68" t="s">
         <v>1937</v>
       </c>
-      <c r="E29" s="68" t="s">
-        <v>1872</v>
-      </c>
-      <c r="F29" s="68" t="s">
+      <c r="G29" s="68" t="s">
         <v>1938</v>
       </c>
-      <c r="G29" s="68" t="s">
+      <c r="H29" s="68" t="s">
+        <v>1920</v>
+      </c>
+      <c r="I29" s="68" t="s">
         <v>1939</v>
       </c>
-      <c r="H29" s="68" t="s">
-        <v>1921</v>
-      </c>
-      <c r="I29" s="68" t="s">
+      <c r="J29" s="68" t="s">
         <v>1940</v>
       </c>
-      <c r="J29" s="68" t="s">
+      <c r="K29" s="68" t="s">
         <v>1941</v>
       </c>
-      <c r="K29" s="68" t="s">
+      <c r="L29" s="68" t="s">
         <v>1942</v>
       </c>
-      <c r="L29" s="68" t="s">
-        <v>1943</v>
-      </c>
       <c r="M29" s="68" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="N29" s="68" t="str">
         <f>CHAR(10)</f>
@@ -16205,49 +16208,49 @@
         <v>9</v>
       </c>
       <c r="D37" s="68" t="s">
+        <v>1943</v>
+      </c>
+      <c r="E37" s="68" t="s">
         <v>1944</v>
       </c>
-      <c r="E37" s="68" t="s">
+      <c r="F37" s="68" t="s">
+        <v>1890</v>
+      </c>
+      <c r="G37" s="68" t="s">
+        <v>1871</v>
+      </c>
+      <c r="H37" s="68" t="s">
         <v>1945</v>
       </c>
-      <c r="F37" s="68" t="s">
+      <c r="I37" s="68" t="s">
+        <v>1946</v>
+      </c>
+      <c r="J37" s="68" t="s">
+        <v>1947</v>
+      </c>
+      <c r="K37" s="68" t="s">
+        <v>1911</v>
+      </c>
+      <c r="L37" s="68" t="s">
+        <v>1871</v>
+      </c>
+      <c r="M37" s="68" t="s">
+        <v>1948</v>
+      </c>
+      <c r="N37" s="68" t="s">
+        <v>1949</v>
+      </c>
+      <c r="O37" s="68" t="s">
+        <v>1868</v>
+      </c>
+      <c r="P37" s="68" t="s">
+        <v>1939</v>
+      </c>
+      <c r="Q37" s="68" t="s">
         <v>1891</v>
       </c>
-      <c r="G37" s="68" t="s">
-        <v>1872</v>
-      </c>
-      <c r="H37" s="68" t="s">
-        <v>1946</v>
-      </c>
-      <c r="I37" s="68" t="s">
-        <v>1947</v>
-      </c>
-      <c r="J37" s="68" t="s">
-        <v>1948</v>
-      </c>
-      <c r="K37" s="68" t="s">
-        <v>1912</v>
-      </c>
-      <c r="L37" s="68" t="s">
-        <v>1872</v>
-      </c>
-      <c r="M37" s="68" t="s">
-        <v>1949</v>
-      </c>
-      <c r="N37" s="68" t="s">
+      <c r="R37" s="68" t="s">
         <v>1950</v>
-      </c>
-      <c r="O37" s="68" t="s">
-        <v>1869</v>
-      </c>
-      <c r="P37" s="68" t="s">
-        <v>1940</v>
-      </c>
-      <c r="Q37" s="68" t="s">
-        <v>1892</v>
-      </c>
-      <c r="R37" s="68" t="s">
-        <v>1951</v>
       </c>
       <c r="S37" s="21"/>
       <c r="V37" s="64"/>
@@ -16368,49 +16371,49 @@
         <v>10</v>
       </c>
       <c r="D41" s="68" t="s">
+        <v>1951</v>
+      </c>
+      <c r="E41" s="68" t="s">
         <v>1952</v>
       </c>
-      <c r="E41" s="68" t="s">
+      <c r="F41" s="68" t="s">
         <v>1953</v>
       </c>
-      <c r="F41" s="68" t="s">
+      <c r="G41" s="68" t="s">
+        <v>1878</v>
+      </c>
+      <c r="H41" s="68" t="s">
         <v>1954</v>
       </c>
-      <c r="G41" s="68" t="s">
-        <v>1879</v>
-      </c>
-      <c r="H41" s="68" t="s">
+      <c r="I41" s="68" t="s">
+        <v>1871</v>
+      </c>
+      <c r="J41" s="68" t="s">
         <v>1955</v>
       </c>
-      <c r="I41" s="68" t="s">
-        <v>1872</v>
-      </c>
-      <c r="J41" s="68" t="s">
+      <c r="K41" s="68" t="s">
         <v>1956</v>
       </c>
-      <c r="K41" s="68" t="s">
+      <c r="L41" s="68" t="s">
         <v>1957</v>
       </c>
-      <c r="L41" s="68" t="s">
+      <c r="M41" s="68" t="s">
         <v>1958</v>
       </c>
-      <c r="M41" s="68" t="s">
+      <c r="N41" s="68" t="s">
+        <v>1878</v>
+      </c>
+      <c r="O41" s="68" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P41" s="68" t="s">
+        <v>1891</v>
+      </c>
+      <c r="Q41" s="68" t="s">
         <v>1959</v>
       </c>
-      <c r="N41" s="68" t="s">
-        <v>1879</v>
-      </c>
-      <c r="O41" s="68" t="s">
-        <v>1935</v>
-      </c>
-      <c r="P41" s="68" t="s">
-        <v>1892</v>
-      </c>
-      <c r="Q41" s="68" t="s">
-        <v>1960</v>
-      </c>
       <c r="R41" s="68" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="S41" s="21"/>
       <c r="V41" s="64"/>
@@ -16533,49 +16536,49 @@
         <v>11</v>
       </c>
       <c r="D45" s="68" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E45" s="68" t="s">
         <v>1961</v>
       </c>
-      <c r="E45" s="68" t="s">
+      <c r="F45" s="68" t="s">
         <v>1962</v>
       </c>
-      <c r="F45" s="68" t="s">
+      <c r="G45" s="68" t="s">
         <v>1963</v>
       </c>
-      <c r="G45" s="68" t="s">
+      <c r="H45" s="68" t="s">
+        <v>1871</v>
+      </c>
+      <c r="I45" s="68" t="s">
+        <v>1938</v>
+      </c>
+      <c r="J45" s="68" t="s">
+        <v>1920</v>
+      </c>
+      <c r="K45" s="68" t="s">
         <v>1964</v>
       </c>
-      <c r="H45" s="68" t="s">
-        <v>1872</v>
-      </c>
-      <c r="I45" s="68" t="s">
-        <v>1939</v>
-      </c>
-      <c r="J45" s="68" t="s">
-        <v>1921</v>
-      </c>
-      <c r="K45" s="68" t="s">
+      <c r="L45" s="68" t="s">
         <v>1965</v>
       </c>
-      <c r="L45" s="68" t="s">
+      <c r="M45" s="68" t="s">
         <v>1966</v>
       </c>
-      <c r="M45" s="68" t="s">
+      <c r="N45" s="68" t="s">
+        <v>1878</v>
+      </c>
+      <c r="O45" s="68" t="s">
         <v>1967</v>
       </c>
-      <c r="N45" s="68" t="s">
-        <v>1879</v>
-      </c>
-      <c r="O45" s="68" t="s">
+      <c r="P45" s="68" t="s">
+        <v>1871</v>
+      </c>
+      <c r="Q45" s="68" t="s">
         <v>1968</v>
       </c>
-      <c r="P45" s="68" t="s">
-        <v>1872</v>
-      </c>
-      <c r="Q45" s="68" t="s">
+      <c r="R45" s="68" t="s">
         <v>1969</v>
-      </c>
-      <c r="R45" s="68" t="s">
-        <v>1970</v>
       </c>
       <c r="S45" s="21"/>
       <c r="V45" s="64"/>
@@ -16676,13 +16679,13 @@
         <v>12</v>
       </c>
       <c r="D49" s="68" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="E49" s="68" t="s">
+        <v>1890</v>
+      </c>
+      <c r="F49" s="68" t="s">
         <v>1891</v>
-      </c>
-      <c r="F49" s="68" t="s">
-        <v>1892</v>
       </c>
       <c r="G49" s="68" t="str">
         <f>CHAR(10)</f>
@@ -16886,49 +16889,49 @@
         <v>14</v>
       </c>
       <c r="D57" s="68" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E57" s="68" t="s">
         <v>1972</v>
       </c>
-      <c r="E57" s="68" t="s">
+      <c r="F57" s="68" t="s">
+        <v>1878</v>
+      </c>
+      <c r="G57" s="68" t="s">
         <v>1973</v>
       </c>
-      <c r="F57" s="68" t="s">
-        <v>1879</v>
-      </c>
-      <c r="G57" s="68" t="s">
+      <c r="H57" s="68" t="s">
         <v>1974</v>
       </c>
-      <c r="H57" s="68" t="s">
+      <c r="I57" s="68" t="s">
+        <v>1871</v>
+      </c>
+      <c r="J57" s="68" t="s">
+        <v>1955</v>
+      </c>
+      <c r="K57" s="68" t="s">
+        <v>1950</v>
+      </c>
+      <c r="L57" s="68" t="s">
+        <v>1935</v>
+      </c>
+      <c r="M57" s="68" t="s">
         <v>1975</v>
       </c>
-      <c r="I57" s="68" t="s">
-        <v>1872</v>
-      </c>
-      <c r="J57" s="68" t="s">
-        <v>1956</v>
-      </c>
-      <c r="K57" s="68" t="s">
-        <v>1951</v>
-      </c>
-      <c r="L57" s="68" t="s">
-        <v>1936</v>
-      </c>
-      <c r="M57" s="68" t="s">
+      <c r="N57" s="68" t="s">
+        <v>1871</v>
+      </c>
+      <c r="O57" s="68" t="s">
         <v>1976</v>
       </c>
-      <c r="N57" s="68" t="s">
-        <v>1872</v>
-      </c>
-      <c r="O57" s="68" t="s">
+      <c r="P57" s="68" t="s">
         <v>1977</v>
       </c>
-      <c r="P57" s="68" t="s">
+      <c r="Q57" s="68" t="s">
         <v>1978</v>
       </c>
-      <c r="Q57" s="68" t="s">
-        <v>1979</v>
-      </c>
       <c r="R57" s="68" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="S57" s="21"/>
       <c r="V57" s="64"/>
@@ -17049,49 +17052,49 @@
         <v>15</v>
       </c>
       <c r="D61" s="68" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E61" s="68" t="s">
+        <v>1871</v>
+      </c>
+      <c r="F61" s="68" t="s">
         <v>1980</v>
       </c>
-      <c r="E61" s="68" t="s">
-        <v>1872</v>
-      </c>
-      <c r="F61" s="68" t="s">
+      <c r="G61" s="68" t="s">
         <v>1981</v>
       </c>
-      <c r="G61" s="68" t="s">
+      <c r="H61" s="68" t="s">
+        <v>1935</v>
+      </c>
+      <c r="I61" s="68" t="s">
         <v>1982</v>
       </c>
-      <c r="H61" s="68" t="s">
-        <v>1936</v>
-      </c>
-      <c r="I61" s="68" t="s">
+      <c r="J61" s="68" t="s">
+        <v>1878</v>
+      </c>
+      <c r="K61" s="68" t="s">
         <v>1983</v>
       </c>
-      <c r="J61" s="68" t="s">
-        <v>1879</v>
-      </c>
-      <c r="K61" s="68" t="s">
+      <c r="L61" s="68" t="s">
+        <v>1909</v>
+      </c>
+      <c r="M61" s="68" t="s">
+        <v>1976</v>
+      </c>
+      <c r="N61" s="68" t="s">
         <v>1984</v>
       </c>
-      <c r="L61" s="68" t="s">
-        <v>1910</v>
-      </c>
-      <c r="M61" s="68" t="s">
-        <v>1977</v>
-      </c>
-      <c r="N61" s="68" t="s">
+      <c r="O61" s="68" t="s">
         <v>1985</v>
       </c>
-      <c r="O61" s="68" t="s">
+      <c r="P61" s="68" t="s">
+        <v>1959</v>
+      </c>
+      <c r="Q61" s="68" t="s">
         <v>1986</v>
       </c>
-      <c r="P61" s="68" t="s">
-        <v>1960</v>
-      </c>
-      <c r="Q61" s="68" t="s">
-        <v>1987</v>
-      </c>
       <c r="R61" s="68" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="S61" s="21"/>
       <c r="V61" s="64"/>
@@ -17212,49 +17215,49 @@
         <v>16</v>
       </c>
       <c r="D65" s="68" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E65" s="68" t="s">
         <v>1988</v>
       </c>
-      <c r="E65" s="68" t="s">
+      <c r="F65" s="68" t="s">
         <v>1989</v>
       </c>
-      <c r="F65" s="68" t="s">
+      <c r="G65" s="68" t="s">
         <v>1990</v>
       </c>
-      <c r="G65" s="68" t="s">
+      <c r="H65" s="68" t="s">
+        <v>1878</v>
+      </c>
+      <c r="I65" s="68" t="s">
         <v>1991</v>
       </c>
-      <c r="H65" s="68" t="s">
-        <v>1879</v>
-      </c>
-      <c r="I65" s="68" t="s">
+      <c r="J65" s="68" t="s">
+        <v>1891</v>
+      </c>
+      <c r="K65" s="68" t="s">
+        <v>1929</v>
+      </c>
+      <c r="L65" s="68" t="s">
+        <v>1977</v>
+      </c>
+      <c r="M65" s="68" t="s">
         <v>1992</v>
       </c>
-      <c r="J65" s="68" t="s">
-        <v>1892</v>
-      </c>
-      <c r="K65" s="68" t="s">
-        <v>1930</v>
-      </c>
-      <c r="L65" s="68" t="s">
-        <v>1978</v>
-      </c>
-      <c r="M65" s="68" t="s">
+      <c r="N65" s="68" t="s">
         <v>1993</v>
       </c>
-      <c r="N65" s="68" t="s">
+      <c r="O65" s="68" t="s">
         <v>1994</v>
       </c>
-      <c r="O65" s="68" t="s">
+      <c r="P65" s="68" t="s">
+        <v>1871</v>
+      </c>
+      <c r="Q65" s="68" t="s">
         <v>1995</v>
       </c>
-      <c r="P65" s="68" t="s">
-        <v>1872</v>
-      </c>
-      <c r="Q65" s="68" t="s">
+      <c r="R65" s="68" t="s">
         <v>1996</v>
-      </c>
-      <c r="R65" s="68" t="s">
-        <v>1997</v>
       </c>
       <c r="S65" s="21"/>
       <c r="V65" s="64"/>
@@ -17375,49 +17378,49 @@
         <v>17</v>
       </c>
       <c r="D69" s="68" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E69" s="68" t="s">
         <v>1998</v>
       </c>
-      <c r="E69" s="68" t="s">
+      <c r="F69" s="68" t="s">
+        <v>1871</v>
+      </c>
+      <c r="G69" s="68" t="s">
         <v>1999</v>
       </c>
-      <c r="F69" s="68" t="s">
-        <v>1872</v>
-      </c>
-      <c r="G69" s="68" t="s">
+      <c r="H69" s="68" t="s">
+        <v>1927</v>
+      </c>
+      <c r="I69" s="68" t="s">
         <v>2000</v>
       </c>
-      <c r="H69" s="68" t="s">
-        <v>1928</v>
-      </c>
-      <c r="I69" s="68" t="s">
+      <c r="J69" s="68" t="s">
+        <v>1881</v>
+      </c>
+      <c r="K69" s="68" t="s">
+        <v>1959</v>
+      </c>
+      <c r="L69" s="68" t="s">
         <v>2001</v>
       </c>
-      <c r="J69" s="68" t="s">
-        <v>1882</v>
-      </c>
-      <c r="K69" s="68" t="s">
-        <v>1960</v>
-      </c>
-      <c r="L69" s="68" t="s">
+      <c r="M69" s="68" t="s">
+        <v>1871</v>
+      </c>
+      <c r="N69" s="68" t="s">
         <v>2002</v>
       </c>
-      <c r="M69" s="68" t="s">
-        <v>1872</v>
-      </c>
-      <c r="N69" s="68" t="s">
+      <c r="O69" s="68" t="s">
         <v>2003</v>
       </c>
-      <c r="O69" s="68" t="s">
+      <c r="P69" s="68" t="s">
+        <v>1881</v>
+      </c>
+      <c r="Q69" s="68" t="s">
         <v>2004</v>
       </c>
-      <c r="P69" s="68" t="s">
-        <v>1882</v>
-      </c>
-      <c r="Q69" s="68" t="s">
-        <v>2005</v>
-      </c>
       <c r="R69" s="68" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="S69" s="21"/>
       <c r="V69" s="64"/>
@@ -17538,49 +17541,49 @@
         <v>18</v>
       </c>
       <c r="D73" s="68" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E73" s="68" t="s">
         <v>2006</v>
       </c>
-      <c r="E73" s="68" t="s">
+      <c r="F73" s="68" t="s">
         <v>2007</v>
       </c>
-      <c r="F73" s="68" t="s">
+      <c r="G73" s="68" t="s">
+        <v>1938</v>
+      </c>
+      <c r="H73" s="68" t="s">
+        <v>1871</v>
+      </c>
+      <c r="I73" s="68" t="s">
+        <v>1997</v>
+      </c>
+      <c r="J73" s="68" t="s">
         <v>2008</v>
       </c>
-      <c r="G73" s="68" t="s">
-        <v>1939</v>
-      </c>
-      <c r="H73" s="68" t="s">
-        <v>1872</v>
-      </c>
-      <c r="I73" s="68" t="s">
-        <v>1998</v>
-      </c>
-      <c r="J73" s="68" t="s">
+      <c r="K73" s="68" t="s">
         <v>2009</v>
       </c>
-      <c r="K73" s="68" t="s">
+      <c r="L73" s="68" t="s">
+        <v>1878</v>
+      </c>
+      <c r="M73" s="68" t="s">
         <v>2010</v>
       </c>
-      <c r="L73" s="68" t="s">
-        <v>1879</v>
-      </c>
-      <c r="M73" s="68" t="s">
+      <c r="N73" s="68" t="s">
+        <v>1895</v>
+      </c>
+      <c r="O73" s="68" t="s">
+        <v>1909</v>
+      </c>
+      <c r="P73" s="68" t="s">
         <v>2011</v>
       </c>
-      <c r="N73" s="68" t="s">
-        <v>1896</v>
-      </c>
-      <c r="O73" s="68" t="s">
-        <v>1910</v>
-      </c>
-      <c r="P73" s="68" t="s">
-        <v>2012</v>
-      </c>
       <c r="Q73" s="68" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="R73" s="68" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="S73" s="21"/>
       <c r="V73" s="64"/>
@@ -17701,49 +17704,49 @@
         <v>19</v>
       </c>
       <c r="D77" s="68" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="E77" s="68" t="s">
+        <v>2012</v>
+      </c>
+      <c r="F77" s="68" t="s">
         <v>2013</v>
       </c>
-      <c r="F77" s="68" t="s">
+      <c r="G77" s="68" t="s">
+        <v>1871</v>
+      </c>
+      <c r="H77" s="68" t="s">
+        <v>1942</v>
+      </c>
+      <c r="I77" s="68" t="s">
         <v>2014</v>
       </c>
-      <c r="G77" s="68" t="s">
-        <v>1872</v>
-      </c>
-      <c r="H77" s="68" t="s">
-        <v>1943</v>
-      </c>
-      <c r="I77" s="68" t="s">
+      <c r="J77" s="68" t="s">
+        <v>1889</v>
+      </c>
+      <c r="K77" s="68" t="s">
         <v>2015</v>
       </c>
-      <c r="J77" s="68" t="s">
-        <v>1890</v>
-      </c>
-      <c r="K77" s="68" t="s">
+      <c r="L77" s="68" t="s">
+        <v>1871</v>
+      </c>
+      <c r="M77" s="68" t="s">
         <v>2016</v>
       </c>
-      <c r="L77" s="68" t="s">
-        <v>1872</v>
-      </c>
-      <c r="M77" s="68" t="s">
+      <c r="N77" s="68" t="s">
         <v>2017</v>
       </c>
-      <c r="N77" s="68" t="s">
+      <c r="O77" s="68" t="s">
         <v>2018</v>
       </c>
-      <c r="O77" s="68" t="s">
+      <c r="P77" s="68" t="s">
+        <v>1878</v>
+      </c>
+      <c r="Q77" s="68" t="s">
         <v>2019</v>
       </c>
-      <c r="P77" s="68" t="s">
-        <v>1879</v>
-      </c>
-      <c r="Q77" s="68" t="s">
-        <v>2020</v>
-      </c>
       <c r="R77" s="68" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="S77" s="21"/>
       <c r="V77" s="64"/>
@@ -17862,49 +17865,49 @@
         <v>20</v>
       </c>
       <c r="D81" s="68" t="s">
+        <v>2020</v>
+      </c>
+      <c r="E81" s="68" t="s">
+        <v>1878</v>
+      </c>
+      <c r="F81" s="68" t="s">
+        <v>1959</v>
+      </c>
+      <c r="G81" s="68" t="s">
+        <v>2000</v>
+      </c>
+      <c r="H81" s="68" t="s">
+        <v>1871</v>
+      </c>
+      <c r="I81" s="68" t="s">
+        <v>1955</v>
+      </c>
+      <c r="J81" s="68" t="s">
+        <v>1950</v>
+      </c>
+      <c r="K81" s="68" t="s">
+        <v>1878</v>
+      </c>
+      <c r="L81" s="68" t="s">
         <v>2021</v>
       </c>
-      <c r="E81" s="68" t="s">
-        <v>1879</v>
-      </c>
-      <c r="F81" s="68" t="s">
-        <v>1960</v>
-      </c>
-      <c r="G81" s="68" t="s">
-        <v>2001</v>
-      </c>
-      <c r="H81" s="68" t="s">
-        <v>1872</v>
-      </c>
-      <c r="I81" s="68" t="s">
-        <v>1956</v>
-      </c>
-      <c r="J81" s="68" t="s">
-        <v>1951</v>
-      </c>
-      <c r="K81" s="68" t="s">
-        <v>1879</v>
-      </c>
-      <c r="L81" s="68" t="s">
+      <c r="M81" s="68" t="s">
+        <v>1871</v>
+      </c>
+      <c r="N81" s="68" t="s">
         <v>2022</v>
       </c>
-      <c r="M81" s="68" t="s">
-        <v>1872</v>
-      </c>
-      <c r="N81" s="68" t="s">
+      <c r="O81" s="68" t="s">
+        <v>1921</v>
+      </c>
+      <c r="P81" s="68" t="s">
         <v>2023</v>
       </c>
-      <c r="O81" s="68" t="s">
-        <v>1922</v>
-      </c>
-      <c r="P81" s="68" t="s">
+      <c r="Q81" s="68" t="s">
         <v>2024</v>
       </c>
-      <c r="Q81" s="68" t="s">
-        <v>2025</v>
-      </c>
       <c r="R81" s="68" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="S81" s="21"/>
       <c r="V81" s="64"/>
@@ -18025,49 +18028,49 @@
         <v>21</v>
       </c>
       <c r="D85" s="68" t="s">
+        <v>2025</v>
+      </c>
+      <c r="E85" s="68" t="s">
+        <v>1997</v>
+      </c>
+      <c r="F85" s="68" t="s">
         <v>2026</v>
       </c>
-      <c r="E85" s="68" t="s">
-        <v>1998</v>
-      </c>
-      <c r="F85" s="68" t="s">
+      <c r="G85" s="68" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H85" s="68" t="s">
+        <v>1920</v>
+      </c>
+      <c r="I85" s="68" t="s">
+        <v>1878</v>
+      </c>
+      <c r="J85" s="68" t="s">
         <v>2027</v>
       </c>
-      <c r="G85" s="68" t="s">
-        <v>1998</v>
-      </c>
-      <c r="H85" s="68" t="s">
-        <v>1921</v>
-      </c>
-      <c r="I85" s="68" t="s">
-        <v>1879</v>
-      </c>
-      <c r="J85" s="68" t="s">
+      <c r="K85" s="68" t="s">
+        <v>1963</v>
+      </c>
+      <c r="L85" s="68" t="s">
+        <v>1909</v>
+      </c>
+      <c r="M85" s="68" t="s">
         <v>2028</v>
       </c>
-      <c r="K85" s="68" t="s">
-        <v>1964</v>
-      </c>
-      <c r="L85" s="68" t="s">
-        <v>1910</v>
-      </c>
-      <c r="M85" s="68" t="s">
+      <c r="N85" s="68" t="s">
         <v>2029</v>
       </c>
-      <c r="N85" s="68" t="s">
+      <c r="O85" s="68" t="s">
         <v>2030</v>
       </c>
-      <c r="O85" s="68" t="s">
+      <c r="P85" s="68" t="s">
+        <v>2014</v>
+      </c>
+      <c r="Q85" s="68" t="s">
         <v>2031</v>
       </c>
-      <c r="P85" s="68" t="s">
-        <v>2015</v>
-      </c>
-      <c r="Q85" s="68" t="s">
-        <v>2032</v>
-      </c>
       <c r="R85" s="68" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="S85" s="21"/>
       <c r="V85" s="7"/>
@@ -18188,49 +18191,49 @@
         <v>22</v>
       </c>
       <c r="D89" s="68" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E89" s="68" t="s">
         <v>2033</v>
       </c>
-      <c r="E89" s="68" t="s">
+      <c r="F89" s="68" t="s">
+        <v>1881</v>
+      </c>
+      <c r="G89" s="68" t="s">
         <v>2034</v>
       </c>
-      <c r="F89" s="68" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G89" s="68" t="s">
+      <c r="H89" s="68" t="s">
+        <v>1891</v>
+      </c>
+      <c r="I89" s="68" t="s">
         <v>2035</v>
       </c>
-      <c r="H89" s="68" t="s">
-        <v>1892</v>
-      </c>
-      <c r="I89" s="68" t="s">
+      <c r="J89" s="68" t="s">
+        <v>1972</v>
+      </c>
+      <c r="K89" s="68" t="s">
         <v>2036</v>
       </c>
-      <c r="J89" s="68" t="s">
-        <v>1973</v>
-      </c>
-      <c r="K89" s="68" t="s">
+      <c r="L89" s="68" t="s">
         <v>2037</v>
       </c>
-      <c r="L89" s="68" t="s">
+      <c r="M89" s="68" t="s">
         <v>2038</v>
       </c>
-      <c r="M89" s="68" t="s">
+      <c r="N89" s="68" t="s">
         <v>2039</v>
       </c>
-      <c r="N89" s="68" t="s">
+      <c r="O89" s="68" t="s">
         <v>2040</v>
       </c>
-      <c r="O89" s="68" t="s">
-        <v>2041</v>
-      </c>
       <c r="P89" s="68" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="Q89" s="68" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="R89" s="68" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="S89" s="21"/>
       <c r="V89" s="7"/>
@@ -18333,25 +18336,25 @@
         <v>23</v>
       </c>
       <c r="D93" s="68" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="E93" s="68" t="s">
+        <v>2041</v>
+      </c>
+      <c r="F93" s="68" t="s">
         <v>2042</v>
       </c>
-      <c r="F93" s="68" t="s">
+      <c r="G93" s="68" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H93" s="68" t="s">
         <v>2043</v>
       </c>
-      <c r="G93" s="68" t="s">
-        <v>1998</v>
-      </c>
-      <c r="H93" s="68" t="s">
+      <c r="I93" s="68" t="s">
         <v>2044</v>
       </c>
-      <c r="I93" s="68" t="s">
+      <c r="J93" s="68" t="s">
         <v>2045</v>
-      </c>
-      <c r="J93" s="68" t="s">
-        <v>2046</v>
       </c>
       <c r="K93" s="68" t="str">
         <f>CHAR(10)</f>
@@ -18555,49 +18558,49 @@
         <v>25</v>
       </c>
       <c r="D101" s="68" t="s">
+        <v>2046</v>
+      </c>
+      <c r="E101" s="68" t="s">
         <v>2047</v>
       </c>
-      <c r="E101" s="68" t="s">
+      <c r="F101" s="68" t="s">
         <v>2048</v>
       </c>
-      <c r="F101" s="68" t="s">
+      <c r="G101" s="68" t="s">
+        <v>1972</v>
+      </c>
+      <c r="H101" s="68" t="s">
+        <v>2027</v>
+      </c>
+      <c r="I101" s="68" t="s">
+        <v>2016</v>
+      </c>
+      <c r="J101" s="68" t="s">
+        <v>1878</v>
+      </c>
+      <c r="K101" s="68" t="s">
         <v>2049</v>
       </c>
-      <c r="G101" s="68" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H101" s="68" t="s">
-        <v>2028</v>
-      </c>
-      <c r="I101" s="68" t="s">
-        <v>2017</v>
-      </c>
-      <c r="J101" s="68" t="s">
-        <v>1879</v>
-      </c>
-      <c r="K101" s="68" t="s">
+      <c r="L101" s="68" t="s">
+        <v>1871</v>
+      </c>
+      <c r="M101" s="68" t="s">
         <v>2050</v>
       </c>
-      <c r="L101" s="68" t="s">
-        <v>1872</v>
-      </c>
-      <c r="M101" s="68" t="s">
+      <c r="N101" s="68" t="s">
         <v>2051</v>
       </c>
-      <c r="N101" s="68" t="s">
+      <c r="O101" s="68" t="s">
+        <v>1935</v>
+      </c>
+      <c r="P101" s="68" t="s">
         <v>2052</v>
       </c>
-      <c r="O101" s="68" t="s">
-        <v>1936</v>
-      </c>
-      <c r="P101" s="68" t="s">
+      <c r="Q101" s="68" t="s">
+        <v>1871</v>
+      </c>
+      <c r="R101" s="68" t="s">
         <v>2053</v>
-      </c>
-      <c r="Q101" s="68" t="s">
-        <v>1872</v>
-      </c>
-      <c r="R101" s="68" t="s">
-        <v>2054</v>
       </c>
       <c r="S101" s="21"/>
       <c r="V101" s="7"/>
@@ -18720,49 +18723,49 @@
         <v>26</v>
       </c>
       <c r="D105" s="68" t="s">
+        <v>2054</v>
+      </c>
+      <c r="E105" s="68" t="s">
+        <v>1997</v>
+      </c>
+      <c r="F105" s="68" t="s">
         <v>2055</v>
       </c>
-      <c r="E105" s="68" t="s">
-        <v>1998</v>
-      </c>
-      <c r="F105" s="68" t="s">
+      <c r="G105" s="68" t="s">
         <v>2056</v>
       </c>
-      <c r="G105" s="68" t="s">
+      <c r="H105" s="68" t="s">
         <v>2057</v>
       </c>
-      <c r="H105" s="68" t="s">
+      <c r="I105" s="68" t="s">
         <v>2058</v>
       </c>
-      <c r="I105" s="68" t="s">
+      <c r="J105" s="68" t="s">
+        <v>1871</v>
+      </c>
+      <c r="K105" s="68" t="s">
+        <v>1997</v>
+      </c>
+      <c r="L105" s="68" t="s">
+        <v>2026</v>
+      </c>
+      <c r="M105" s="68" t="s">
         <v>2059</v>
       </c>
-      <c r="J105" s="68" t="s">
-        <v>1872</v>
-      </c>
-      <c r="K105" s="68" t="s">
-        <v>1998</v>
-      </c>
-      <c r="L105" s="68" t="s">
-        <v>2027</v>
-      </c>
-      <c r="M105" s="68" t="s">
+      <c r="N105" s="68" t="s">
+        <v>1878</v>
+      </c>
+      <c r="O105" s="68" t="s">
+        <v>1881</v>
+      </c>
+      <c r="P105" s="68" t="s">
+        <v>1963</v>
+      </c>
+      <c r="Q105" s="68" t="s">
+        <v>1891</v>
+      </c>
+      <c r="R105" s="68" t="s">
         <v>2060</v>
-      </c>
-      <c r="N105" s="68" t="s">
-        <v>1879</v>
-      </c>
-      <c r="O105" s="68" t="s">
-        <v>1882</v>
-      </c>
-      <c r="P105" s="68" t="s">
-        <v>1964</v>
-      </c>
-      <c r="Q105" s="68" t="s">
-        <v>1892</v>
-      </c>
-      <c r="R105" s="68" t="s">
-        <v>2061</v>
       </c>
       <c r="S105" s="21"/>
       <c r="V105" s="7"/>
@@ -18885,49 +18888,49 @@
         <v>27</v>
       </c>
       <c r="D109" s="68" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E109" s="68" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="F109" s="68" t="s">
+        <v>2039</v>
+      </c>
+      <c r="G109" s="68" t="s">
         <v>2040</v>
       </c>
-      <c r="G109" s="68" t="s">
-        <v>2041</v>
-      </c>
       <c r="H109" s="68" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="I109" s="68" t="s">
+        <v>2061</v>
+      </c>
+      <c r="J109" s="68" t="s">
         <v>2062</v>
       </c>
-      <c r="J109" s="68" t="s">
+      <c r="K109" s="68" t="s">
+        <v>1871</v>
+      </c>
+      <c r="L109" s="68" t="s">
         <v>2063</v>
       </c>
-      <c r="K109" s="68" t="s">
-        <v>1872</v>
-      </c>
-      <c r="L109" s="68" t="s">
+      <c r="M109" s="68" t="s">
         <v>2064</v>
       </c>
-      <c r="M109" s="68" t="s">
+      <c r="N109" s="68" t="s">
         <v>2065</v>
       </c>
-      <c r="N109" s="68" t="s">
+      <c r="O109" s="68" t="s">
+        <v>1921</v>
+      </c>
+      <c r="P109" s="68" t="s">
         <v>2066</v>
       </c>
-      <c r="O109" s="68" t="s">
-        <v>1922</v>
-      </c>
-      <c r="P109" s="68" t="s">
+      <c r="Q109" s="68" t="s">
         <v>2067</v>
       </c>
-      <c r="Q109" s="68" t="s">
-        <v>2068</v>
-      </c>
       <c r="R109" s="68" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="S109" s="21"/>
       <c r="V109" s="7"/>
@@ -19048,49 +19051,49 @@
         <v>28</v>
       </c>
       <c r="D113" s="69" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E113" s="69" t="s">
+        <v>1878</v>
+      </c>
+      <c r="F113" s="69" t="s">
+        <v>1965</v>
+      </c>
+      <c r="G113" s="69" t="s">
         <v>2069</v>
       </c>
-      <c r="E113" s="69" t="s">
-        <v>1879</v>
-      </c>
-      <c r="F113" s="69" t="s">
-        <v>1966</v>
-      </c>
-      <c r="G113" s="69" t="s">
+      <c r="H113" s="69" t="s">
+        <v>1871</v>
+      </c>
+      <c r="I113" s="69" t="s">
+        <v>1937</v>
+      </c>
+      <c r="J113" s="69" t="s">
+        <v>2025</v>
+      </c>
+      <c r="K113" s="69" t="s">
+        <v>2069</v>
+      </c>
+      <c r="L113" s="69" t="s">
+        <v>1878</v>
+      </c>
+      <c r="M113" s="69" t="s">
+        <v>1965</v>
+      </c>
+      <c r="N113" s="69" t="s">
+        <v>2048</v>
+      </c>
+      <c r="O113" s="69" t="s">
+        <v>1871</v>
+      </c>
+      <c r="P113" s="69" t="s">
         <v>2070</v>
       </c>
-      <c r="H113" s="69" t="s">
-        <v>1872</v>
-      </c>
-      <c r="I113" s="69" t="s">
-        <v>1938</v>
-      </c>
-      <c r="J113" s="69" t="s">
-        <v>2026</v>
-      </c>
-      <c r="K113" s="69" t="s">
-        <v>2070</v>
-      </c>
-      <c r="L113" s="69" t="s">
-        <v>1879</v>
-      </c>
-      <c r="M113" s="69" t="s">
-        <v>1966</v>
-      </c>
-      <c r="N113" s="69" t="s">
-        <v>2049</v>
-      </c>
-      <c r="O113" s="69" t="s">
-        <v>1872</v>
-      </c>
-      <c r="P113" s="69" t="s">
-        <v>2071</v>
-      </c>
       <c r="Q113" s="69" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="R113" s="69" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="S113" s="21"/>
       <c r="V113" s="7"/>
@@ -19211,49 +19214,49 @@
         <v>29</v>
       </c>
       <c r="D117" s="68" t="s">
+        <v>2071</v>
+      </c>
+      <c r="E117" s="68" t="s">
+        <v>1925</v>
+      </c>
+      <c r="F117" s="68" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G117" s="68" t="s">
         <v>2072</v>
       </c>
-      <c r="E117" s="68" t="s">
-        <v>1926</v>
-      </c>
-      <c r="F117" s="68" t="s">
-        <v>1941</v>
-      </c>
-      <c r="G117" s="68" t="s">
+      <c r="H117" s="68" t="s">
+        <v>1972</v>
+      </c>
+      <c r="I117" s="68" t="s">
+        <v>1871</v>
+      </c>
+      <c r="J117" s="68" t="s">
         <v>2073</v>
       </c>
-      <c r="H117" s="68" t="s">
-        <v>1973</v>
-      </c>
-      <c r="I117" s="68" t="s">
-        <v>1872</v>
-      </c>
-      <c r="J117" s="68" t="s">
+      <c r="K117" s="68" t="s">
+        <v>1927</v>
+      </c>
+      <c r="L117" s="68" t="s">
+        <v>1959</v>
+      </c>
+      <c r="M117" s="68" t="s">
         <v>2074</v>
       </c>
-      <c r="K117" s="68" t="s">
-        <v>1928</v>
-      </c>
-      <c r="L117" s="68" t="s">
-        <v>1960</v>
-      </c>
-      <c r="M117" s="68" t="s">
-        <v>2075</v>
-      </c>
       <c r="N117" s="68" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="O117" s="68" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="P117" s="68" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="Q117" s="68" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="R117" s="68" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="S117" s="21"/>
       <c r="V117" s="7"/>
@@ -19374,49 +19377,49 @@
         <v>30</v>
       </c>
       <c r="D121" s="68" t="s">
+        <v>2075</v>
+      </c>
+      <c r="E121" s="68" t="s">
+        <v>1871</v>
+      </c>
+      <c r="F121" s="68" t="s">
+        <v>1959</v>
+      </c>
+      <c r="G121" s="68" t="s">
+        <v>1920</v>
+      </c>
+      <c r="H121" s="68" t="s">
+        <v>2027</v>
+      </c>
+      <c r="I121" s="68" t="s">
+        <v>1963</v>
+      </c>
+      <c r="J121" s="68" t="s">
+        <v>1871</v>
+      </c>
+      <c r="K121" s="68" t="s">
+        <v>1927</v>
+      </c>
+      <c r="L121" s="68" t="s">
         <v>2076</v>
       </c>
-      <c r="E121" s="68" t="s">
-        <v>1872</v>
-      </c>
-      <c r="F121" s="68" t="s">
-        <v>1960</v>
-      </c>
-      <c r="G121" s="68" t="s">
-        <v>1921</v>
-      </c>
-      <c r="H121" s="68" t="s">
-        <v>2028</v>
-      </c>
-      <c r="I121" s="68" t="s">
-        <v>1964</v>
-      </c>
-      <c r="J121" s="68" t="s">
-        <v>1872</v>
-      </c>
-      <c r="K121" s="68" t="s">
-        <v>1928</v>
-      </c>
-      <c r="L121" s="68" t="s">
-        <v>2077</v>
-      </c>
       <c r="M121" s="68" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="N121" s="68" t="s">
+        <v>1890</v>
+      </c>
+      <c r="O121" s="68" t="s">
         <v>1891</v>
       </c>
-      <c r="O121" s="68" t="s">
-        <v>1892</v>
-      </c>
       <c r="P121" s="68" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="Q121" s="68" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="R121" s="68" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="S121" s="21"/>
       <c r="V121" s="7"/>
@@ -19527,34 +19530,34 @@
         <v>31</v>
       </c>
       <c r="D125" s="68" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E125" s="68" t="s">
+        <v>1871</v>
+      </c>
+      <c r="F125" s="68" t="s">
+        <v>1937</v>
+      </c>
+      <c r="G125" s="68" t="s">
+        <v>2010</v>
+      </c>
+      <c r="H125" s="68" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I125" s="68" t="s">
+        <v>2016</v>
+      </c>
+      <c r="J125" s="68" t="s">
+        <v>1881</v>
+      </c>
+      <c r="K125" s="68" t="s">
         <v>2078</v>
       </c>
-      <c r="E125" s="68" t="s">
-        <v>1872</v>
-      </c>
-      <c r="F125" s="68" t="s">
-        <v>1938</v>
-      </c>
-      <c r="G125" s="68" t="s">
-        <v>2011</v>
-      </c>
-      <c r="H125" s="68" t="s">
-        <v>1903</v>
-      </c>
-      <c r="I125" s="68" t="s">
-        <v>2017</v>
-      </c>
-      <c r="J125" s="68" t="s">
-        <v>1882</v>
-      </c>
-      <c r="K125" s="68" t="s">
-        <v>2079</v>
-      </c>
       <c r="L125" s="68" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="M125" s="68" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="N125" s="68" t="s">
         <v>38</v>

--- a/output7/【河洛文讀注音-閩拼調號】《蘭亭集序》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《蘭亭集序》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F164541B-13EF-4E68-AB42-88D29E7AD0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{485AEA26-DEC3-4FE1-914D-03C6119EC7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>

--- a/output7/【河洛文讀注音-閩拼調號】《蘭亭集序》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《蘭亭集序》.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E43B06C-49FA-488E-9C79-E6623355A586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654D99D3-0CB6-4982-BF5D-C224610FA109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="1380" windowWidth="25080" windowHeight="12270" activeTab="3" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -5713,14 +5713,6 @@
     <t>zia3</t>
   </si>
   <si>
-    <t>閩拼調號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雅俗通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>方音符號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6981,6 +6973,12 @@
   <si>
     <t>https://i2.kknews.cc/CbkyGDOCfCaUqzdq7hlOLfp0GA7pqVksGA/0.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十五音</t>
+  </si>
+  <si>
+    <t>方音符號</t>
   </si>
 </sst>
 </file>
@@ -11014,7 +11012,7 @@
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -11076,7 +11074,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="D7" s="55"/>
       <c r="E7" s="55"/>
@@ -11148,7 +11146,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>1730</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="30">
@@ -11172,7 +11170,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>1731</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="30">
@@ -11180,7 +11178,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="30">
@@ -11276,7 +11274,7 @@
         <v>499</v>
       </c>
       <c r="E3" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -11412,7 +11410,7 @@
         <v>499</v>
       </c>
       <c r="E11" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -11429,7 +11427,7 @@
         <v>499</v>
       </c>
       <c r="E12" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -11463,7 +11461,7 @@
         <v>499</v>
       </c>
       <c r="E14" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -11480,7 +11478,7 @@
         <v>499</v>
       </c>
       <c r="E15" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -11497,7 +11495,7 @@
         <v>499</v>
       </c>
       <c r="E16" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -11514,7 +11512,7 @@
         <v>499</v>
       </c>
       <c r="E17" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -11548,7 +11546,7 @@
         <v>499</v>
       </c>
       <c r="E19" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -11565,7 +11563,7 @@
         <v>499</v>
       </c>
       <c r="E20" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -11582,7 +11580,7 @@
         <v>499</v>
       </c>
       <c r="E21" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -11616,7 +11614,7 @@
         <v>499</v>
       </c>
       <c r="E23" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -11633,7 +11631,7 @@
         <v>499</v>
       </c>
       <c r="E24" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -11684,7 +11682,7 @@
         <v>499</v>
       </c>
       <c r="E27" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -11701,7 +11699,7 @@
         <v>499</v>
       </c>
       <c r="E28" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -11718,7 +11716,7 @@
         <v>499</v>
       </c>
       <c r="E29" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -11752,7 +11750,7 @@
         <v>499</v>
       </c>
       <c r="E31" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -11786,7 +11784,7 @@
         <v>499</v>
       </c>
       <c r="E33" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -11820,7 +11818,7 @@
         <v>499</v>
       </c>
       <c r="E35" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -11854,7 +11852,7 @@
         <v>499</v>
       </c>
       <c r="E37" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -11888,7 +11886,7 @@
         <v>499</v>
       </c>
       <c r="E39" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -11905,7 +11903,7 @@
         <v>499</v>
       </c>
       <c r="E40" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -11922,7 +11920,7 @@
         <v>499</v>
       </c>
       <c r="E41" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -11939,7 +11937,7 @@
         <v>499</v>
       </c>
       <c r="E42" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -11956,7 +11954,7 @@
         <v>499</v>
       </c>
       <c r="E43" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -11973,7 +11971,7 @@
         <v>499</v>
       </c>
       <c r="E44" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -12007,7 +12005,7 @@
         <v>499</v>
       </c>
       <c r="E46" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -12109,7 +12107,7 @@
         <v>499</v>
       </c>
       <c r="E52" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -12126,7 +12124,7 @@
         <v>499</v>
       </c>
       <c r="E53" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -12143,7 +12141,7 @@
         <v>499</v>
       </c>
       <c r="E54" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -12160,7 +12158,7 @@
         <v>499</v>
       </c>
       <c r="E55" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -12177,7 +12175,7 @@
         <v>499</v>
       </c>
       <c r="E56" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -12194,7 +12192,7 @@
         <v>499</v>
       </c>
       <c r="E57" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -12211,7 +12209,7 @@
         <v>499</v>
       </c>
       <c r="E58" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -12228,7 +12226,7 @@
         <v>499</v>
       </c>
       <c r="E59" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -12245,7 +12243,7 @@
         <v>499</v>
       </c>
       <c r="E60" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -12262,7 +12260,7 @@
         <v>499</v>
       </c>
       <c r="E61" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -12279,7 +12277,7 @@
         <v>499</v>
       </c>
       <c r="E62" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -12296,7 +12294,7 @@
         <v>499</v>
       </c>
       <c r="E63" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -12313,7 +12311,7 @@
         <v>499</v>
       </c>
       <c r="E64" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -12330,7 +12328,7 @@
         <v>499</v>
       </c>
       <c r="E65" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -12347,7 +12345,7 @@
         <v>499</v>
       </c>
       <c r="E66" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -12364,7 +12362,7 @@
         <v>499</v>
       </c>
       <c r="E67" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -12381,7 +12379,7 @@
         <v>499</v>
       </c>
       <c r="E68" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -12398,7 +12396,7 @@
         <v>499</v>
       </c>
       <c r="E69" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -12415,7 +12413,7 @@
         <v>499</v>
       </c>
       <c r="E70" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -12432,7 +12430,7 @@
         <v>499</v>
       </c>
       <c r="E71" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -12449,7 +12447,7 @@
         <v>499</v>
       </c>
       <c r="E72" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -12466,7 +12464,7 @@
         <v>499</v>
       </c>
       <c r="E73" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -12483,7 +12481,7 @@
         <v>499</v>
       </c>
       <c r="E74" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -12551,7 +12549,7 @@
         <v>499</v>
       </c>
       <c r="E78" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -12568,7 +12566,7 @@
         <v>499</v>
       </c>
       <c r="E79" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -12585,7 +12583,7 @@
         <v>499</v>
       </c>
       <c r="E80" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -12602,7 +12600,7 @@
         <v>499</v>
       </c>
       <c r="E81" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -12619,7 +12617,7 @@
         <v>499</v>
       </c>
       <c r="E82" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -12636,7 +12634,7 @@
         <v>499</v>
       </c>
       <c r="E83" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -12653,7 +12651,7 @@
         <v>499</v>
       </c>
       <c r="E84" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -12670,7 +12668,7 @@
         <v>499</v>
       </c>
       <c r="E85" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -12687,7 +12685,7 @@
         <v>499</v>
       </c>
       <c r="E86" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -12704,7 +12702,7 @@
         <v>499</v>
       </c>
       <c r="E87" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -12738,7 +12736,7 @@
         <v>499</v>
       </c>
       <c r="E89" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -12755,7 +12753,7 @@
         <v>499</v>
       </c>
       <c r="E90" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -12772,7 +12770,7 @@
         <v>499</v>
       </c>
       <c r="E91" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -12789,7 +12787,7 @@
         <v>499</v>
       </c>
       <c r="E92" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -12823,7 +12821,7 @@
         <v>499</v>
       </c>
       <c r="E94" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -12840,7 +12838,7 @@
         <v>499</v>
       </c>
       <c r="E95" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -12857,7 +12855,7 @@
         <v>499</v>
       </c>
       <c r="E96" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -12874,7 +12872,7 @@
         <v>499</v>
       </c>
       <c r="E97" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -12942,7 +12940,7 @@
         <v>499</v>
       </c>
       <c r="E101" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -12976,7 +12974,7 @@
         <v>499</v>
       </c>
       <c r="E103" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -12993,7 +12991,7 @@
         <v>499</v>
       </c>
       <c r="E104" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -13010,7 +13008,7 @@
         <v>499</v>
       </c>
       <c r="E105" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -13044,7 +13042,7 @@
         <v>499</v>
       </c>
       <c r="E107" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -13061,7 +13059,7 @@
         <v>499</v>
       </c>
       <c r="E108" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -13078,7 +13076,7 @@
         <v>499</v>
       </c>
       <c r="E109" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -13095,7 +13093,7 @@
         <v>499</v>
       </c>
       <c r="E110" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -13112,7 +13110,7 @@
         <v>499</v>
       </c>
       <c r="E111" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -13163,7 +13161,7 @@
         <v>499</v>
       </c>
       <c r="E114" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -13214,7 +13212,7 @@
         <v>499</v>
       </c>
       <c r="E117" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -13231,7 +13229,7 @@
         <v>499</v>
       </c>
       <c r="E118" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -13265,7 +13263,7 @@
         <v>499</v>
       </c>
       <c r="E120" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -13316,7 +13314,7 @@
         <v>499</v>
       </c>
       <c r="E123" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -13367,7 +13365,7 @@
         <v>499</v>
       </c>
       <c r="E126" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -13418,7 +13416,7 @@
         <v>499</v>
       </c>
       <c r="E129" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -13435,7 +13433,7 @@
         <v>499</v>
       </c>
       <c r="E130" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -13469,7 +13467,7 @@
         <v>499</v>
       </c>
       <c r="E132" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -13520,7 +13518,7 @@
         <v>499</v>
       </c>
       <c r="E135" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -13554,7 +13552,7 @@
         <v>499</v>
       </c>
       <c r="E137" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -13571,7 +13569,7 @@
         <v>499</v>
       </c>
       <c r="E138" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -13605,7 +13603,7 @@
         <v>499</v>
       </c>
       <c r="E140" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -13622,7 +13620,7 @@
         <v>499</v>
       </c>
       <c r="E141" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -13639,7 +13637,7 @@
         <v>499</v>
       </c>
       <c r="E142" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -13656,7 +13654,7 @@
         <v>499</v>
       </c>
       <c r="E143" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -13707,7 +13705,7 @@
         <v>499</v>
       </c>
       <c r="E146" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -13741,7 +13739,7 @@
         <v>499</v>
       </c>
       <c r="E148" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -13792,7 +13790,7 @@
         <v>499</v>
       </c>
       <c r="E151" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -13809,7 +13807,7 @@
         <v>499</v>
       </c>
       <c r="E152" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -13826,7 +13824,7 @@
         <v>499</v>
       </c>
       <c r="E153" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -13843,7 +13841,7 @@
         <v>499</v>
       </c>
       <c r="E154" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -13860,7 +13858,7 @@
         <v>499</v>
       </c>
       <c r="E155" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -13877,7 +13875,7 @@
         <v>499</v>
       </c>
       <c r="E156" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -13894,7 +13892,7 @@
         <v>499</v>
       </c>
       <c r="E157" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -13911,7 +13909,7 @@
         <v>499</v>
       </c>
       <c r="E158" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -13928,7 +13926,7 @@
         <v>499</v>
       </c>
       <c r="E159" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -13945,7 +13943,7 @@
         <v>499</v>
       </c>
       <c r="E160" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -13962,7 +13960,7 @@
         <v>499</v>
       </c>
       <c r="E161" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -13979,7 +13977,7 @@
         <v>499</v>
       </c>
       <c r="E162" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -13996,7 +13994,7 @@
         <v>499</v>
       </c>
       <c r="E163" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -14030,7 +14028,7 @@
         <v>499</v>
       </c>
       <c r="E165" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -14047,7 +14045,7 @@
         <v>499</v>
       </c>
       <c r="E166" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -14064,7 +14062,7 @@
         <v>499</v>
       </c>
       <c r="E167" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -14098,7 +14096,7 @@
         <v>499</v>
       </c>
       <c r="E169" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -14115,7 +14113,7 @@
         <v>499</v>
       </c>
       <c r="E170" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -14132,7 +14130,7 @@
         <v>499</v>
       </c>
       <c r="E171" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -14149,7 +14147,7 @@
         <v>499</v>
       </c>
       <c r="E172" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -14200,7 +14198,7 @@
         <v>499</v>
       </c>
       <c r="E175" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -14217,7 +14215,7 @@
         <v>499</v>
       </c>
       <c r="E176" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -14268,7 +14266,7 @@
         <v>499</v>
       </c>
       <c r="E179" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -14353,7 +14351,7 @@
         <v>499</v>
       </c>
       <c r="E184" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -14404,7 +14402,7 @@
         <v>499</v>
       </c>
       <c r="E187" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -14421,7 +14419,7 @@
         <v>499</v>
       </c>
       <c r="E188" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -14438,7 +14436,7 @@
         <v>499</v>
       </c>
       <c r="E189" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -14455,7 +14453,7 @@
         <v>499</v>
       </c>
       <c r="E190" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -14506,7 +14504,7 @@
         <v>499</v>
       </c>
       <c r="E193" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -14557,7 +14555,7 @@
         <v>499</v>
       </c>
       <c r="E196" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -14574,7 +14572,7 @@
         <v>499</v>
       </c>
       <c r="E197" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -14591,7 +14589,7 @@
         <v>499</v>
       </c>
       <c r="E198" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -14608,7 +14606,7 @@
         <v>499</v>
       </c>
       <c r="E199" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -14625,7 +14623,7 @@
         <v>499</v>
       </c>
       <c r="E200" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -14642,7 +14640,7 @@
         <v>499</v>
       </c>
       <c r="E201" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -14659,7 +14657,7 @@
         <v>499</v>
       </c>
       <c r="E202" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -14693,7 +14691,7 @@
         <v>499</v>
       </c>
       <c r="E204" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -14710,7 +14708,7 @@
         <v>499</v>
       </c>
       <c r="E205" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -14727,7 +14725,7 @@
         <v>499</v>
       </c>
       <c r="E206" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
     </row>
   </sheetData>
@@ -14740,7 +14738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F175B6-1148-4517-9451-5BE09989050E}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
@@ -14771,7 +14769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A114" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A114" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
@@ -14905,7 +14903,7 @@
       <c r="R3" s="56"/>
       <c r="T3" s="16"/>
       <c r="V3" s="64" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -14957,49 +14955,49 @@
         <v>1</v>
       </c>
       <c r="D5" s="41" t="s">
+        <v>1865</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>1866</v>
+      </c>
+      <c r="F5" s="41" t="s">
         <v>1867</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="G5" s="41" t="s">
         <v>1868</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="H5" s="41" t="s">
         <v>1869</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="I5" s="41" t="s">
         <v>1870</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="J5" s="41" t="s">
         <v>1871</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="K5" s="41" t="s">
         <v>1872</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="L5" s="41" t="s">
         <v>1873</v>
       </c>
-      <c r="K5" s="41" t="s">
+      <c r="M5" s="41" t="s">
+        <v>1869</v>
+      </c>
+      <c r="N5" s="41" t="s">
         <v>1874</v>
       </c>
-      <c r="L5" s="41" t="s">
+      <c r="O5" s="41" t="s">
         <v>1875</v>
       </c>
-      <c r="M5" s="41" t="s">
-        <v>1871</v>
-      </c>
-      <c r="N5" s="41" t="s">
+      <c r="P5" s="41" t="s">
         <v>1876</v>
       </c>
-      <c r="O5" s="41" t="s">
+      <c r="Q5" s="41" t="s">
         <v>1877</v>
       </c>
-      <c r="P5" s="41" t="s">
-        <v>1878</v>
-      </c>
-      <c r="Q5" s="41" t="s">
-        <v>1879</v>
-      </c>
       <c r="R5" s="41" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="S5" s="21"/>
       <c r="V5" s="65"/>
@@ -15122,49 +15120,49 @@
         <v>2</v>
       </c>
       <c r="D9" s="41" t="s">
+        <v>1878</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>1879</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>1878</v>
+      </c>
+      <c r="G9" s="41" t="s">
         <v>1880</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="H9" s="41" t="s">
         <v>1881</v>
       </c>
-      <c r="F9" s="41" t="s">
-        <v>1880</v>
-      </c>
-      <c r="G9" s="41" t="s">
+      <c r="I9" s="41" t="s">
         <v>1882</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="J9" s="41" t="s">
+        <v>1876</v>
+      </c>
+      <c r="K9" s="41" t="s">
         <v>1883</v>
       </c>
-      <c r="I9" s="41" t="s">
+      <c r="L9" s="41" t="s">
         <v>1884</v>
       </c>
-      <c r="J9" s="41" t="s">
-        <v>1878</v>
-      </c>
-      <c r="K9" s="41" t="s">
+      <c r="M9" s="41" t="s">
+        <v>1869</v>
+      </c>
+      <c r="N9" s="41" t="s">
         <v>1885</v>
       </c>
-      <c r="L9" s="41" t="s">
+      <c r="O9" s="41" t="s">
         <v>1886</v>
       </c>
-      <c r="M9" s="41" t="s">
-        <v>1871</v>
-      </c>
-      <c r="N9" s="41" t="s">
+      <c r="P9" s="41" t="s">
         <v>1887</v>
       </c>
-      <c r="O9" s="41" t="s">
+      <c r="Q9" s="41" t="s">
         <v>1888</v>
       </c>
-      <c r="P9" s="41" t="s">
+      <c r="R9" s="41" t="s">
         <v>1889</v>
-      </c>
-      <c r="Q9" s="41" t="s">
-        <v>1890</v>
-      </c>
-      <c r="R9" s="41" t="s">
-        <v>1891</v>
       </c>
       <c r="S9" s="21"/>
       <c r="T9" s="16"/>
@@ -15288,49 +15286,49 @@
         <v>3</v>
       </c>
       <c r="D13" s="41" t="s">
+        <v>1890</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>1891</v>
+      </c>
+      <c r="F13" s="41" t="s">
         <v>1892</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="G13" s="41" t="s">
         <v>1893</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="H13" s="41" t="s">
+        <v>1869</v>
+      </c>
+      <c r="I13" s="41" t="s">
         <v>1894</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="J13" s="41" t="s">
         <v>1895</v>
       </c>
-      <c r="H13" s="41" t="s">
-        <v>1871</v>
-      </c>
-      <c r="I13" s="41" t="s">
+      <c r="K13" s="41" t="s">
         <v>1896</v>
       </c>
-      <c r="J13" s="41" t="s">
+      <c r="L13" s="41" t="s">
         <v>1897</v>
       </c>
-      <c r="K13" s="41" t="s">
+      <c r="M13" s="41" t="s">
+        <v>1889</v>
+      </c>
+      <c r="N13" s="41" t="s">
         <v>1898</v>
       </c>
-      <c r="L13" s="41" t="s">
+      <c r="O13" s="41" t="s">
         <v>1899</v>
       </c>
-      <c r="M13" s="41" t="s">
-        <v>1891</v>
-      </c>
-      <c r="N13" s="41" t="s">
+      <c r="P13" s="41" t="s">
         <v>1900</v>
       </c>
-      <c r="O13" s="41" t="s">
+      <c r="Q13" s="41" t="s">
         <v>1901</v>
       </c>
-      <c r="P13" s="41" t="s">
-        <v>1902</v>
-      </c>
-      <c r="Q13" s="41" t="s">
-        <v>1903</v>
-      </c>
       <c r="R13" s="41" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="S13" s="21"/>
       <c r="V13" s="65"/>
@@ -15451,49 +15449,49 @@
         <v>4</v>
       </c>
       <c r="D17" s="41" t="s">
+        <v>1902</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>1869</v>
+      </c>
+      <c r="G17" s="41" t="s">
         <v>1904</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="H17" s="41" t="s">
         <v>1905</v>
       </c>
-      <c r="F17" s="41" t="s">
-        <v>1871</v>
-      </c>
-      <c r="G17" s="41" t="s">
+      <c r="I17" s="41" t="s">
+        <v>1885</v>
+      </c>
+      <c r="J17" s="41" t="s">
         <v>1906</v>
       </c>
-      <c r="H17" s="41" t="s">
+      <c r="K17" s="41" t="s">
         <v>1907</v>
       </c>
-      <c r="I17" s="41" t="s">
-        <v>1887</v>
-      </c>
-      <c r="J17" s="41" t="s">
+      <c r="L17" s="41" t="s">
         <v>1908</v>
       </c>
-      <c r="K17" s="41" t="s">
+      <c r="M17" s="41" t="s">
+        <v>1900</v>
+      </c>
+      <c r="N17" s="41" t="s">
         <v>1909</v>
       </c>
-      <c r="L17" s="41" t="s">
+      <c r="O17" s="41" t="s">
         <v>1910</v>
       </c>
-      <c r="M17" s="41" t="s">
-        <v>1902</v>
-      </c>
-      <c r="N17" s="41" t="s">
+      <c r="P17" s="41" t="s">
         <v>1911</v>
       </c>
-      <c r="O17" s="41" t="s">
+      <c r="Q17" s="41" t="s">
         <v>1912</v>
       </c>
-      <c r="P17" s="41" t="s">
-        <v>1913</v>
-      </c>
-      <c r="Q17" s="41" t="s">
-        <v>1914</v>
-      </c>
       <c r="R17" s="41" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="S17" s="21"/>
       <c r="V17" s="65"/>
@@ -15614,49 +15612,49 @@
         <v>5</v>
       </c>
       <c r="D21" s="41" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>1914</v>
+      </c>
+      <c r="F21" s="41" t="s">
         <v>1915</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="G21" s="41" t="s">
         <v>1916</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="H21" s="41" t="s">
+        <v>1869</v>
+      </c>
+      <c r="I21" s="41" t="s">
         <v>1917</v>
       </c>
-      <c r="G21" s="41" t="s">
+      <c r="J21" s="41" t="s">
         <v>1918</v>
       </c>
-      <c r="H21" s="41" t="s">
-        <v>1871</v>
-      </c>
-      <c r="I21" s="41" t="s">
+      <c r="K21" s="41" t="s">
         <v>1919</v>
       </c>
-      <c r="J21" s="41" t="s">
+      <c r="L21" s="41" t="s">
+        <v>1910</v>
+      </c>
+      <c r="M21" s="41" t="s">
         <v>1920</v>
       </c>
-      <c r="K21" s="41" t="s">
+      <c r="N21" s="41" t="s">
         <v>1921</v>
       </c>
-      <c r="L21" s="41" t="s">
-        <v>1912</v>
-      </c>
-      <c r="M21" s="41" t="s">
+      <c r="O21" s="41" t="s">
         <v>1922</v>
       </c>
-      <c r="N21" s="41" t="s">
+      <c r="P21" s="41" t="s">
+        <v>1869</v>
+      </c>
+      <c r="Q21" s="41" t="s">
         <v>1923</v>
       </c>
-      <c r="O21" s="41" t="s">
+      <c r="R21" s="41" t="s">
         <v>1924</v>
-      </c>
-      <c r="P21" s="41" t="s">
-        <v>1871</v>
-      </c>
-      <c r="Q21" s="41" t="s">
-        <v>1925</v>
-      </c>
-      <c r="R21" s="41" t="s">
-        <v>1926</v>
       </c>
       <c r="S21" s="21"/>
       <c r="V21" s="65"/>
@@ -15779,49 +15777,49 @@
         <v>6</v>
       </c>
       <c r="D25" s="41" t="s">
+        <v>1925</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>1926</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>1889</v>
+      </c>
+      <c r="G25" s="41" t="s">
         <v>1927</v>
       </c>
-      <c r="E25" s="41" t="s">
+      <c r="H25" s="41" t="s">
         <v>1928</v>
       </c>
-      <c r="F25" s="41" t="s">
-        <v>1891</v>
-      </c>
-      <c r="G25" s="41" t="s">
+      <c r="I25" s="41" t="s">
         <v>1929</v>
       </c>
-      <c r="H25" s="41" t="s">
+      <c r="J25" s="41" t="s">
+        <v>1906</v>
+      </c>
+      <c r="K25" s="41" t="s">
         <v>1930</v>
       </c>
-      <c r="I25" s="41" t="s">
+      <c r="L25" s="41" t="s">
         <v>1931</v>
       </c>
-      <c r="J25" s="41" t="s">
-        <v>1908</v>
-      </c>
-      <c r="K25" s="41" t="s">
+      <c r="M25" s="41" t="s">
+        <v>1876</v>
+      </c>
+      <c r="N25" s="41" t="s">
         <v>1932</v>
       </c>
-      <c r="L25" s="41" t="s">
+      <c r="O25" s="41" t="s">
+        <v>1869</v>
+      </c>
+      <c r="P25" s="41" t="s">
         <v>1933</v>
       </c>
-      <c r="M25" s="41" t="s">
-        <v>1878</v>
-      </c>
-      <c r="N25" s="41" t="s">
-        <v>1934</v>
-      </c>
-      <c r="O25" s="41" t="s">
-        <v>1871</v>
-      </c>
-      <c r="P25" s="41" t="s">
-        <v>1935</v>
-      </c>
       <c r="Q25" s="41" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="R25" s="41" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="S25" s="21"/>
       <c r="V25" s="65"/>
@@ -15942,34 +15940,34 @@
         <v>7</v>
       </c>
       <c r="D29" s="41" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>1869</v>
+      </c>
+      <c r="F29" s="41" t="s">
+        <v>1935</v>
+      </c>
+      <c r="G29" s="41" t="s">
         <v>1936</v>
       </c>
-      <c r="E29" s="41" t="s">
-        <v>1871</v>
-      </c>
-      <c r="F29" s="41" t="s">
+      <c r="H29" s="41" t="s">
+        <v>1918</v>
+      </c>
+      <c r="I29" s="41" t="s">
         <v>1937</v>
       </c>
-      <c r="G29" s="41" t="s">
+      <c r="J29" s="41" t="s">
         <v>1938</v>
       </c>
-      <c r="H29" s="41" t="s">
-        <v>1920</v>
-      </c>
-      <c r="I29" s="41" t="s">
+      <c r="K29" s="41" t="s">
         <v>1939</v>
       </c>
-      <c r="J29" s="41" t="s">
+      <c r="L29" s="41" t="s">
         <v>1940</v>
       </c>
-      <c r="K29" s="41" t="s">
-        <v>1941</v>
-      </c>
-      <c r="L29" s="41" t="s">
-        <v>1942</v>
-      </c>
       <c r="M29" s="41" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="N29" s="41" t="str">
         <f>CHAR(10)</f>
@@ -16192,49 +16190,49 @@
         <v>9</v>
       </c>
       <c r="D37" s="41" t="s">
+        <v>1941</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>1942</v>
+      </c>
+      <c r="F37" s="41" t="s">
+        <v>1888</v>
+      </c>
+      <c r="G37" s="41" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H37" s="41" t="s">
         <v>1943</v>
       </c>
-      <c r="E37" s="41" t="s">
+      <c r="I37" s="41" t="s">
         <v>1944</v>
       </c>
-      <c r="F37" s="41" t="s">
-        <v>1890</v>
-      </c>
-      <c r="G37" s="41" t="s">
-        <v>1871</v>
-      </c>
-      <c r="H37" s="41" t="s">
+      <c r="J37" s="41" t="s">
         <v>1945</v>
       </c>
-      <c r="I37" s="41" t="s">
+      <c r="K37" s="41" t="s">
+        <v>1909</v>
+      </c>
+      <c r="L37" s="41" t="s">
+        <v>1869</v>
+      </c>
+      <c r="M37" s="41" t="s">
         <v>1946</v>
       </c>
-      <c r="J37" s="41" t="s">
+      <c r="N37" s="41" t="s">
         <v>1947</v>
       </c>
-      <c r="K37" s="41" t="s">
-        <v>1911</v>
-      </c>
-      <c r="L37" s="41" t="s">
-        <v>1871</v>
-      </c>
-      <c r="M37" s="41" t="s">
+      <c r="O37" s="41" t="s">
+        <v>1866</v>
+      </c>
+      <c r="P37" s="41" t="s">
+        <v>1937</v>
+      </c>
+      <c r="Q37" s="41" t="s">
+        <v>1889</v>
+      </c>
+      <c r="R37" s="41" t="s">
         <v>1948</v>
-      </c>
-      <c r="N37" s="41" t="s">
-        <v>1949</v>
-      </c>
-      <c r="O37" s="41" t="s">
-        <v>1868</v>
-      </c>
-      <c r="P37" s="41" t="s">
-        <v>1939</v>
-      </c>
-      <c r="Q37" s="41" t="s">
-        <v>1891</v>
-      </c>
-      <c r="R37" s="41" t="s">
-        <v>1950</v>
       </c>
       <c r="S37" s="21"/>
       <c r="V37" s="65"/>
@@ -16355,49 +16353,49 @@
         <v>10</v>
       </c>
       <c r="D41" s="41" t="s">
+        <v>1949</v>
+      </c>
+      <c r="E41" s="41" t="s">
+        <v>1950</v>
+      </c>
+      <c r="F41" s="41" t="s">
         <v>1951</v>
       </c>
-      <c r="E41" s="41" t="s">
+      <c r="G41" s="41" t="s">
+        <v>1876</v>
+      </c>
+      <c r="H41" s="41" t="s">
         <v>1952</v>
       </c>
-      <c r="F41" s="41" t="s">
+      <c r="I41" s="41" t="s">
+        <v>1869</v>
+      </c>
+      <c r="J41" s="41" t="s">
         <v>1953</v>
       </c>
-      <c r="G41" s="41" t="s">
-        <v>1878</v>
-      </c>
-      <c r="H41" s="41" t="s">
+      <c r="K41" s="41" t="s">
         <v>1954</v>
       </c>
-      <c r="I41" s="41" t="s">
-        <v>1871</v>
-      </c>
-      <c r="J41" s="41" t="s">
+      <c r="L41" s="41" t="s">
         <v>1955</v>
       </c>
-      <c r="K41" s="41" t="s">
+      <c r="M41" s="41" t="s">
         <v>1956</v>
       </c>
-      <c r="L41" s="41" t="s">
+      <c r="N41" s="41" t="s">
+        <v>1876</v>
+      </c>
+      <c r="O41" s="41" t="s">
+        <v>1932</v>
+      </c>
+      <c r="P41" s="41" t="s">
+        <v>1889</v>
+      </c>
+      <c r="Q41" s="41" t="s">
         <v>1957</v>
       </c>
-      <c r="M41" s="41" t="s">
-        <v>1958</v>
-      </c>
-      <c r="N41" s="41" t="s">
-        <v>1878</v>
-      </c>
-      <c r="O41" s="41" t="s">
-        <v>1934</v>
-      </c>
-      <c r="P41" s="41" t="s">
-        <v>1891</v>
-      </c>
-      <c r="Q41" s="41" t="s">
-        <v>1959</v>
-      </c>
       <c r="R41" s="41" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="S41" s="21"/>
       <c r="V41" s="65"/>
@@ -16520,49 +16518,49 @@
         <v>11</v>
       </c>
       <c r="D45" s="41" t="s">
+        <v>1958</v>
+      </c>
+      <c r="E45" s="41" t="s">
+        <v>1959</v>
+      </c>
+      <c r="F45" s="41" t="s">
         <v>1960</v>
       </c>
-      <c r="E45" s="41" t="s">
+      <c r="G45" s="41" t="s">
         <v>1961</v>
       </c>
-      <c r="F45" s="41" t="s">
+      <c r="H45" s="41" t="s">
+        <v>1869</v>
+      </c>
+      <c r="I45" s="41" t="s">
+        <v>1936</v>
+      </c>
+      <c r="J45" s="41" t="s">
+        <v>1918</v>
+      </c>
+      <c r="K45" s="41" t="s">
         <v>1962</v>
       </c>
-      <c r="G45" s="41" t="s">
+      <c r="L45" s="41" t="s">
         <v>1963</v>
       </c>
-      <c r="H45" s="41" t="s">
-        <v>1871</v>
-      </c>
-      <c r="I45" s="41" t="s">
-        <v>1938</v>
-      </c>
-      <c r="J45" s="41" t="s">
-        <v>1920</v>
-      </c>
-      <c r="K45" s="41" t="s">
+      <c r="M45" s="41" t="s">
         <v>1964</v>
       </c>
-      <c r="L45" s="41" t="s">
+      <c r="N45" s="41" t="s">
+        <v>1876</v>
+      </c>
+      <c r="O45" s="41" t="s">
         <v>1965</v>
       </c>
-      <c r="M45" s="41" t="s">
+      <c r="P45" s="41" t="s">
+        <v>1869</v>
+      </c>
+      <c r="Q45" s="41" t="s">
         <v>1966</v>
       </c>
-      <c r="N45" s="41" t="s">
-        <v>1878</v>
-      </c>
-      <c r="O45" s="41" t="s">
+      <c r="R45" s="41" t="s">
         <v>1967</v>
-      </c>
-      <c r="P45" s="41" t="s">
-        <v>1871</v>
-      </c>
-      <c r="Q45" s="41" t="s">
-        <v>1968</v>
-      </c>
-      <c r="R45" s="41" t="s">
-        <v>1969</v>
       </c>
       <c r="S45" s="21"/>
       <c r="V45" s="65"/>
@@ -16663,13 +16661,13 @@
         <v>12</v>
       </c>
       <c r="D49" s="41" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="E49" s="41" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="F49" s="41" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="G49" s="41" t="str">
         <f>CHAR(10)</f>
@@ -16873,49 +16871,49 @@
         <v>14</v>
       </c>
       <c r="D57" s="41" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E57" s="41" t="s">
+        <v>1970</v>
+      </c>
+      <c r="F57" s="41" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G57" s="41" t="s">
         <v>1971</v>
       </c>
-      <c r="E57" s="41" t="s">
+      <c r="H57" s="41" t="s">
         <v>1972</v>
       </c>
-      <c r="F57" s="41" t="s">
-        <v>1878</v>
-      </c>
-      <c r="G57" s="41" t="s">
+      <c r="I57" s="41" t="s">
+        <v>1869</v>
+      </c>
+      <c r="J57" s="41" t="s">
+        <v>1953</v>
+      </c>
+      <c r="K57" s="41" t="s">
+        <v>1948</v>
+      </c>
+      <c r="L57" s="41" t="s">
+        <v>1933</v>
+      </c>
+      <c r="M57" s="41" t="s">
         <v>1973</v>
       </c>
-      <c r="H57" s="41" t="s">
+      <c r="N57" s="41" t="s">
+        <v>1869</v>
+      </c>
+      <c r="O57" s="41" t="s">
         <v>1974</v>
       </c>
-      <c r="I57" s="41" t="s">
-        <v>1871</v>
-      </c>
-      <c r="J57" s="41" t="s">
-        <v>1955</v>
-      </c>
-      <c r="K57" s="41" t="s">
-        <v>1950</v>
-      </c>
-      <c r="L57" s="41" t="s">
-        <v>1935</v>
-      </c>
-      <c r="M57" s="41" t="s">
+      <c r="P57" s="41" t="s">
         <v>1975</v>
       </c>
-      <c r="N57" s="41" t="s">
-        <v>1871</v>
-      </c>
-      <c r="O57" s="41" t="s">
+      <c r="Q57" s="41" t="s">
         <v>1976</v>
       </c>
-      <c r="P57" s="41" t="s">
-        <v>1977</v>
-      </c>
-      <c r="Q57" s="41" t="s">
-        <v>1978</v>
-      </c>
       <c r="R57" s="41" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="S57" s="21"/>
       <c r="V57" s="65"/>
@@ -17036,49 +17034,49 @@
         <v>15</v>
       </c>
       <c r="D61" s="41" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E61" s="41" t="s">
+        <v>1869</v>
+      </c>
+      <c r="F61" s="41" t="s">
+        <v>1978</v>
+      </c>
+      <c r="G61" s="41" t="s">
         <v>1979</v>
       </c>
-      <c r="E61" s="41" t="s">
-        <v>1871</v>
-      </c>
-      <c r="F61" s="41" t="s">
+      <c r="H61" s="41" t="s">
+        <v>1933</v>
+      </c>
+      <c r="I61" s="41" t="s">
         <v>1980</v>
       </c>
-      <c r="G61" s="41" t="s">
+      <c r="J61" s="41" t="s">
+        <v>1876</v>
+      </c>
+      <c r="K61" s="41" t="s">
         <v>1981</v>
       </c>
-      <c r="H61" s="41" t="s">
-        <v>1935</v>
-      </c>
-      <c r="I61" s="41" t="s">
+      <c r="L61" s="41" t="s">
+        <v>1907</v>
+      </c>
+      <c r="M61" s="41" t="s">
+        <v>1974</v>
+      </c>
+      <c r="N61" s="41" t="s">
         <v>1982</v>
       </c>
-      <c r="J61" s="41" t="s">
-        <v>1878</v>
-      </c>
-      <c r="K61" s="41" t="s">
+      <c r="O61" s="41" t="s">
         <v>1983</v>
       </c>
-      <c r="L61" s="41" t="s">
-        <v>1909</v>
-      </c>
-      <c r="M61" s="41" t="s">
-        <v>1976</v>
-      </c>
-      <c r="N61" s="41" t="s">
+      <c r="P61" s="41" t="s">
+        <v>1957</v>
+      </c>
+      <c r="Q61" s="41" t="s">
         <v>1984</v>
       </c>
-      <c r="O61" s="41" t="s">
-        <v>1985</v>
-      </c>
-      <c r="P61" s="41" t="s">
-        <v>1959</v>
-      </c>
-      <c r="Q61" s="41" t="s">
-        <v>1986</v>
-      </c>
       <c r="R61" s="41" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="S61" s="21"/>
       <c r="V61" s="65"/>
@@ -17199,49 +17197,49 @@
         <v>16</v>
       </c>
       <c r="D65" s="41" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E65" s="41" t="s">
+        <v>1986</v>
+      </c>
+      <c r="F65" s="41" t="s">
         <v>1987</v>
       </c>
-      <c r="E65" s="41" t="s">
+      <c r="G65" s="41" t="s">
         <v>1988</v>
       </c>
-      <c r="F65" s="41" t="s">
+      <c r="H65" s="41" t="s">
+        <v>1876</v>
+      </c>
+      <c r="I65" s="41" t="s">
         <v>1989</v>
       </c>
-      <c r="G65" s="41" t="s">
+      <c r="J65" s="41" t="s">
+        <v>1889</v>
+      </c>
+      <c r="K65" s="41" t="s">
+        <v>1927</v>
+      </c>
+      <c r="L65" s="41" t="s">
+        <v>1975</v>
+      </c>
+      <c r="M65" s="41" t="s">
         <v>1990</v>
       </c>
-      <c r="H65" s="41" t="s">
-        <v>1878</v>
-      </c>
-      <c r="I65" s="41" t="s">
+      <c r="N65" s="41" t="s">
         <v>1991</v>
       </c>
-      <c r="J65" s="41" t="s">
-        <v>1891</v>
-      </c>
-      <c r="K65" s="41" t="s">
-        <v>1929</v>
-      </c>
-      <c r="L65" s="41" t="s">
-        <v>1977</v>
-      </c>
-      <c r="M65" s="41" t="s">
+      <c r="O65" s="41" t="s">
         <v>1992</v>
       </c>
-      <c r="N65" s="41" t="s">
+      <c r="P65" s="41" t="s">
+        <v>1869</v>
+      </c>
+      <c r="Q65" s="41" t="s">
         <v>1993</v>
       </c>
-      <c r="O65" s="41" t="s">
+      <c r="R65" s="41" t="s">
         <v>1994</v>
-      </c>
-      <c r="P65" s="41" t="s">
-        <v>1871</v>
-      </c>
-      <c r="Q65" s="41" t="s">
-        <v>1995</v>
-      </c>
-      <c r="R65" s="41" t="s">
-        <v>1996</v>
       </c>
       <c r="S65" s="21"/>
       <c r="V65" s="65"/>
@@ -17362,49 +17360,49 @@
         <v>17</v>
       </c>
       <c r="D69" s="41" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E69" s="41" t="s">
+        <v>1996</v>
+      </c>
+      <c r="F69" s="41" t="s">
+        <v>1869</v>
+      </c>
+      <c r="G69" s="41" t="s">
         <v>1997</v>
       </c>
-      <c r="E69" s="41" t="s">
+      <c r="H69" s="41" t="s">
+        <v>1925</v>
+      </c>
+      <c r="I69" s="41" t="s">
         <v>1998</v>
       </c>
-      <c r="F69" s="41" t="s">
-        <v>1871</v>
-      </c>
-      <c r="G69" s="41" t="s">
+      <c r="J69" s="41" t="s">
+        <v>1879</v>
+      </c>
+      <c r="K69" s="41" t="s">
+        <v>1957</v>
+      </c>
+      <c r="L69" s="41" t="s">
         <v>1999</v>
       </c>
-      <c r="H69" s="41" t="s">
-        <v>1927</v>
-      </c>
-      <c r="I69" s="41" t="s">
+      <c r="M69" s="41" t="s">
+        <v>1869</v>
+      </c>
+      <c r="N69" s="41" t="s">
         <v>2000</v>
       </c>
-      <c r="J69" s="41" t="s">
-        <v>1881</v>
-      </c>
-      <c r="K69" s="41" t="s">
-        <v>1959</v>
-      </c>
-      <c r="L69" s="41" t="s">
+      <c r="O69" s="41" t="s">
         <v>2001</v>
       </c>
-      <c r="M69" s="41" t="s">
-        <v>1871</v>
-      </c>
-      <c r="N69" s="41" t="s">
+      <c r="P69" s="41" t="s">
+        <v>1879</v>
+      </c>
+      <c r="Q69" s="41" t="s">
         <v>2002</v>
       </c>
-      <c r="O69" s="41" t="s">
-        <v>2003</v>
-      </c>
-      <c r="P69" s="41" t="s">
-        <v>1881</v>
-      </c>
-      <c r="Q69" s="41" t="s">
-        <v>2004</v>
-      </c>
       <c r="R69" s="41" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="S69" s="21"/>
       <c r="V69" s="65"/>
@@ -17525,49 +17523,49 @@
         <v>18</v>
       </c>
       <c r="D73" s="41" t="s">
+        <v>2003</v>
+      </c>
+      <c r="E73" s="41" t="s">
+        <v>2004</v>
+      </c>
+      <c r="F73" s="41" t="s">
         <v>2005</v>
       </c>
-      <c r="E73" s="41" t="s">
+      <c r="G73" s="41" t="s">
+        <v>1936</v>
+      </c>
+      <c r="H73" s="41" t="s">
+        <v>1869</v>
+      </c>
+      <c r="I73" s="41" t="s">
+        <v>1995</v>
+      </c>
+      <c r="J73" s="41" t="s">
         <v>2006</v>
       </c>
-      <c r="F73" s="41" t="s">
+      <c r="K73" s="41" t="s">
         <v>2007</v>
       </c>
-      <c r="G73" s="41" t="s">
-        <v>1938</v>
-      </c>
-      <c r="H73" s="41" t="s">
-        <v>1871</v>
-      </c>
-      <c r="I73" s="41" t="s">
-        <v>1997</v>
-      </c>
-      <c r="J73" s="41" t="s">
+      <c r="L73" s="41" t="s">
+        <v>1876</v>
+      </c>
+      <c r="M73" s="41" t="s">
         <v>2008</v>
       </c>
-      <c r="K73" s="41" t="s">
+      <c r="N73" s="41" t="s">
+        <v>1893</v>
+      </c>
+      <c r="O73" s="41" t="s">
+        <v>1907</v>
+      </c>
+      <c r="P73" s="41" t="s">
         <v>2009</v>
       </c>
-      <c r="L73" s="41" t="s">
-        <v>1878</v>
-      </c>
-      <c r="M73" s="41" t="s">
-        <v>2010</v>
-      </c>
-      <c r="N73" s="41" t="s">
-        <v>1895</v>
-      </c>
-      <c r="O73" s="41" t="s">
-        <v>1909</v>
-      </c>
-      <c r="P73" s="41" t="s">
-        <v>2011</v>
-      </c>
       <c r="Q73" s="41" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="R73" s="41" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="S73" s="21"/>
       <c r="V73" s="65"/>
@@ -17688,49 +17686,49 @@
         <v>19</v>
       </c>
       <c r="D77" s="41" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="E77" s="41" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F77" s="41" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G77" s="41" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H77" s="41" t="s">
+        <v>1940</v>
+      </c>
+      <c r="I77" s="41" t="s">
         <v>2012</v>
       </c>
-      <c r="F77" s="41" t="s">
+      <c r="J77" s="41" t="s">
+        <v>1887</v>
+      </c>
+      <c r="K77" s="41" t="s">
         <v>2013</v>
       </c>
-      <c r="G77" s="41" t="s">
-        <v>1871</v>
-      </c>
-      <c r="H77" s="41" t="s">
-        <v>1942</v>
-      </c>
-      <c r="I77" s="41" t="s">
+      <c r="L77" s="41" t="s">
+        <v>1869</v>
+      </c>
+      <c r="M77" s="41" t="s">
         <v>2014</v>
       </c>
-      <c r="J77" s="41" t="s">
+      <c r="N77" s="41" t="s">
+        <v>2015</v>
+      </c>
+      <c r="O77" s="41" t="s">
+        <v>2016</v>
+      </c>
+      <c r="P77" s="41" t="s">
+        <v>1876</v>
+      </c>
+      <c r="Q77" s="41" t="s">
+        <v>2017</v>
+      </c>
+      <c r="R77" s="41" t="s">
         <v>1889</v>
-      </c>
-      <c r="K77" s="41" t="s">
-        <v>2015</v>
-      </c>
-      <c r="L77" s="41" t="s">
-        <v>1871</v>
-      </c>
-      <c r="M77" s="41" t="s">
-        <v>2016</v>
-      </c>
-      <c r="N77" s="41" t="s">
-        <v>2017</v>
-      </c>
-      <c r="O77" s="41" t="s">
-        <v>2018</v>
-      </c>
-      <c r="P77" s="41" t="s">
-        <v>1878</v>
-      </c>
-      <c r="Q77" s="41" t="s">
-        <v>2019</v>
-      </c>
-      <c r="R77" s="41" t="s">
-        <v>1891</v>
       </c>
       <c r="S77" s="21"/>
       <c r="V77" s="65"/>
@@ -17849,49 +17847,49 @@
         <v>20</v>
       </c>
       <c r="D81" s="41" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E81" s="41" t="s">
+        <v>1876</v>
+      </c>
+      <c r="F81" s="41" t="s">
+        <v>1957</v>
+      </c>
+      <c r="G81" s="41" t="s">
+        <v>1998</v>
+      </c>
+      <c r="H81" s="41" t="s">
+        <v>1869</v>
+      </c>
+      <c r="I81" s="41" t="s">
+        <v>1953</v>
+      </c>
+      <c r="J81" s="41" t="s">
+        <v>1948</v>
+      </c>
+      <c r="K81" s="41" t="s">
+        <v>1876</v>
+      </c>
+      <c r="L81" s="41" t="s">
+        <v>2019</v>
+      </c>
+      <c r="M81" s="41" t="s">
+        <v>1869</v>
+      </c>
+      <c r="N81" s="41" t="s">
         <v>2020</v>
       </c>
-      <c r="E81" s="41" t="s">
-        <v>1878</v>
-      </c>
-      <c r="F81" s="41" t="s">
-        <v>1959</v>
-      </c>
-      <c r="G81" s="41" t="s">
-        <v>2000</v>
-      </c>
-      <c r="H81" s="41" t="s">
-        <v>1871</v>
-      </c>
-      <c r="I81" s="41" t="s">
-        <v>1955</v>
-      </c>
-      <c r="J81" s="41" t="s">
-        <v>1950</v>
-      </c>
-      <c r="K81" s="41" t="s">
-        <v>1878</v>
-      </c>
-      <c r="L81" s="41" t="s">
+      <c r="O81" s="41" t="s">
+        <v>1919</v>
+      </c>
+      <c r="P81" s="41" t="s">
         <v>2021</v>
       </c>
-      <c r="M81" s="41" t="s">
-        <v>1871</v>
-      </c>
-      <c r="N81" s="41" t="s">
+      <c r="Q81" s="41" t="s">
         <v>2022</v>
       </c>
-      <c r="O81" s="41" t="s">
-        <v>1921</v>
-      </c>
-      <c r="P81" s="41" t="s">
-        <v>2023</v>
-      </c>
-      <c r="Q81" s="41" t="s">
-        <v>2024</v>
-      </c>
       <c r="R81" s="41" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="S81" s="21"/>
       <c r="V81" s="65"/>
@@ -18012,49 +18010,49 @@
         <v>21</v>
       </c>
       <c r="D85" s="41" t="s">
+        <v>2023</v>
+      </c>
+      <c r="E85" s="41" t="s">
+        <v>1995</v>
+      </c>
+      <c r="F85" s="41" t="s">
+        <v>2024</v>
+      </c>
+      <c r="G85" s="41" t="s">
+        <v>1995</v>
+      </c>
+      <c r="H85" s="41" t="s">
+        <v>1918</v>
+      </c>
+      <c r="I85" s="41" t="s">
+        <v>1876</v>
+      </c>
+      <c r="J85" s="41" t="s">
         <v>2025</v>
       </c>
-      <c r="E85" s="41" t="s">
-        <v>1997</v>
-      </c>
-      <c r="F85" s="41" t="s">
+      <c r="K85" s="41" t="s">
+        <v>1961</v>
+      </c>
+      <c r="L85" s="41" t="s">
+        <v>1907</v>
+      </c>
+      <c r="M85" s="41" t="s">
         <v>2026</v>
       </c>
-      <c r="G85" s="41" t="s">
-        <v>1997</v>
-      </c>
-      <c r="H85" s="41" t="s">
-        <v>1920</v>
-      </c>
-      <c r="I85" s="41" t="s">
-        <v>1878</v>
-      </c>
-      <c r="J85" s="41" t="s">
+      <c r="N85" s="41" t="s">
         <v>2027</v>
       </c>
-      <c r="K85" s="41" t="s">
-        <v>1963</v>
-      </c>
-      <c r="L85" s="41" t="s">
-        <v>1909</v>
-      </c>
-      <c r="M85" s="41" t="s">
+      <c r="O85" s="41" t="s">
         <v>2028</v>
       </c>
-      <c r="N85" s="41" t="s">
+      <c r="P85" s="41" t="s">
+        <v>2012</v>
+      </c>
+      <c r="Q85" s="41" t="s">
         <v>2029</v>
       </c>
-      <c r="O85" s="41" t="s">
-        <v>2030</v>
-      </c>
-      <c r="P85" s="41" t="s">
-        <v>2014</v>
-      </c>
-      <c r="Q85" s="41" t="s">
-        <v>2031</v>
-      </c>
       <c r="R85" s="41" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="S85" s="21"/>
       <c r="V85" s="7"/>
@@ -18175,49 +18173,49 @@
         <v>22</v>
       </c>
       <c r="D89" s="41" t="s">
+        <v>2030</v>
+      </c>
+      <c r="E89" s="41" t="s">
+        <v>2031</v>
+      </c>
+      <c r="F89" s="41" t="s">
+        <v>1879</v>
+      </c>
+      <c r="G89" s="41" t="s">
         <v>2032</v>
       </c>
-      <c r="E89" s="41" t="s">
+      <c r="H89" s="41" t="s">
+        <v>1889</v>
+      </c>
+      <c r="I89" s="41" t="s">
         <v>2033</v>
       </c>
-      <c r="F89" s="41" t="s">
-        <v>1881</v>
-      </c>
-      <c r="G89" s="41" t="s">
+      <c r="J89" s="41" t="s">
+        <v>1970</v>
+      </c>
+      <c r="K89" s="41" t="s">
         <v>2034</v>
       </c>
-      <c r="H89" s="41" t="s">
-        <v>1891</v>
-      </c>
-      <c r="I89" s="41" t="s">
+      <c r="L89" s="41" t="s">
         <v>2035</v>
       </c>
-      <c r="J89" s="41" t="s">
-        <v>1972</v>
-      </c>
-      <c r="K89" s="41" t="s">
+      <c r="M89" s="41" t="s">
         <v>2036</v>
       </c>
-      <c r="L89" s="41" t="s">
+      <c r="N89" s="41" t="s">
         <v>2037</v>
       </c>
-      <c r="M89" s="41" t="s">
+      <c r="O89" s="41" t="s">
         <v>2038</v>
       </c>
-      <c r="N89" s="41" t="s">
-        <v>2039</v>
-      </c>
-      <c r="O89" s="41" t="s">
-        <v>2040</v>
-      </c>
       <c r="P89" s="41" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="Q89" s="41" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="R89" s="41" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="S89" s="21"/>
       <c r="V89" s="7"/>
@@ -18320,25 +18318,25 @@
         <v>23</v>
       </c>
       <c r="D93" s="41" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="E93" s="41" t="s">
+        <v>2039</v>
+      </c>
+      <c r="F93" s="41" t="s">
+        <v>2040</v>
+      </c>
+      <c r="G93" s="41" t="s">
+        <v>1995</v>
+      </c>
+      <c r="H93" s="41" t="s">
         <v>2041</v>
       </c>
-      <c r="F93" s="41" t="s">
+      <c r="I93" s="41" t="s">
         <v>2042</v>
       </c>
-      <c r="G93" s="41" t="s">
-        <v>1997</v>
-      </c>
-      <c r="H93" s="41" t="s">
+      <c r="J93" s="41" t="s">
         <v>2043</v>
-      </c>
-      <c r="I93" s="41" t="s">
-        <v>2044</v>
-      </c>
-      <c r="J93" s="41" t="s">
-        <v>2045</v>
       </c>
       <c r="K93" s="41" t="str">
         <f>CHAR(10)</f>
@@ -18542,49 +18540,49 @@
         <v>25</v>
       </c>
       <c r="D101" s="41" t="s">
+        <v>2044</v>
+      </c>
+      <c r="E101" s="41" t="s">
+        <v>2045</v>
+      </c>
+      <c r="F101" s="41" t="s">
         <v>2046</v>
       </c>
-      <c r="E101" s="41" t="s">
+      <c r="G101" s="41" t="s">
+        <v>1970</v>
+      </c>
+      <c r="H101" s="41" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I101" s="41" t="s">
+        <v>2014</v>
+      </c>
+      <c r="J101" s="41" t="s">
+        <v>1876</v>
+      </c>
+      <c r="K101" s="41" t="s">
         <v>2047</v>
       </c>
-      <c r="F101" s="41" t="s">
+      <c r="L101" s="41" t="s">
+        <v>1869</v>
+      </c>
+      <c r="M101" s="41" t="s">
         <v>2048</v>
       </c>
-      <c r="G101" s="41" t="s">
-        <v>1972</v>
-      </c>
-      <c r="H101" s="41" t="s">
-        <v>2027</v>
-      </c>
-      <c r="I101" s="41" t="s">
-        <v>2016</v>
-      </c>
-      <c r="J101" s="41" t="s">
-        <v>1878</v>
-      </c>
-      <c r="K101" s="41" t="s">
+      <c r="N101" s="41" t="s">
         <v>2049</v>
       </c>
-      <c r="L101" s="41" t="s">
-        <v>1871</v>
-      </c>
-      <c r="M101" s="41" t="s">
+      <c r="O101" s="41" t="s">
+        <v>1933</v>
+      </c>
+      <c r="P101" s="41" t="s">
         <v>2050</v>
       </c>
-      <c r="N101" s="41" t="s">
+      <c r="Q101" s="41" t="s">
+        <v>1869</v>
+      </c>
+      <c r="R101" s="41" t="s">
         <v>2051</v>
-      </c>
-      <c r="O101" s="41" t="s">
-        <v>1935</v>
-      </c>
-      <c r="P101" s="41" t="s">
-        <v>2052</v>
-      </c>
-      <c r="Q101" s="41" t="s">
-        <v>1871</v>
-      </c>
-      <c r="R101" s="41" t="s">
-        <v>2053</v>
       </c>
       <c r="S101" s="21"/>
       <c r="V101" s="7"/>
@@ -18707,49 +18705,49 @@
         <v>26</v>
       </c>
       <c r="D105" s="41" t="s">
+        <v>2052</v>
+      </c>
+      <c r="E105" s="41" t="s">
+        <v>1995</v>
+      </c>
+      <c r="F105" s="41" t="s">
+        <v>2053</v>
+      </c>
+      <c r="G105" s="41" t="s">
         <v>2054</v>
       </c>
-      <c r="E105" s="41" t="s">
-        <v>1997</v>
-      </c>
-      <c r="F105" s="41" t="s">
+      <c r="H105" s="41" t="s">
         <v>2055</v>
       </c>
-      <c r="G105" s="41" t="s">
+      <c r="I105" s="41" t="s">
         <v>2056</v>
       </c>
-      <c r="H105" s="41" t="s">
+      <c r="J105" s="41" t="s">
+        <v>1869</v>
+      </c>
+      <c r="K105" s="41" t="s">
+        <v>1995</v>
+      </c>
+      <c r="L105" s="41" t="s">
+        <v>2024</v>
+      </c>
+      <c r="M105" s="41" t="s">
         <v>2057</v>
       </c>
-      <c r="I105" s="41" t="s">
+      <c r="N105" s="41" t="s">
+        <v>1876</v>
+      </c>
+      <c r="O105" s="41" t="s">
+        <v>1879</v>
+      </c>
+      <c r="P105" s="41" t="s">
+        <v>1961</v>
+      </c>
+      <c r="Q105" s="41" t="s">
+        <v>1889</v>
+      </c>
+      <c r="R105" s="41" t="s">
         <v>2058</v>
-      </c>
-      <c r="J105" s="41" t="s">
-        <v>1871</v>
-      </c>
-      <c r="K105" s="41" t="s">
-        <v>1997</v>
-      </c>
-      <c r="L105" s="41" t="s">
-        <v>2026</v>
-      </c>
-      <c r="M105" s="41" t="s">
-        <v>2059</v>
-      </c>
-      <c r="N105" s="41" t="s">
-        <v>1878</v>
-      </c>
-      <c r="O105" s="41" t="s">
-        <v>1881</v>
-      </c>
-      <c r="P105" s="41" t="s">
-        <v>1963</v>
-      </c>
-      <c r="Q105" s="41" t="s">
-        <v>1891</v>
-      </c>
-      <c r="R105" s="41" t="s">
-        <v>2060</v>
       </c>
       <c r="S105" s="21"/>
       <c r="V105" s="7"/>
@@ -18872,49 +18870,49 @@
         <v>27</v>
       </c>
       <c r="D109" s="41" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E109" s="41" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="F109" s="41" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="G109" s="41" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="H109" s="41" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="I109" s="41" t="s">
+        <v>2059</v>
+      </c>
+      <c r="J109" s="41" t="s">
+        <v>2060</v>
+      </c>
+      <c r="K109" s="41" t="s">
+        <v>1869</v>
+      </c>
+      <c r="L109" s="41" t="s">
         <v>2061</v>
       </c>
-      <c r="J109" s="41" t="s">
+      <c r="M109" s="41" t="s">
         <v>2062</v>
       </c>
-      <c r="K109" s="41" t="s">
-        <v>1871</v>
-      </c>
-      <c r="L109" s="41" t="s">
+      <c r="N109" s="41" t="s">
         <v>2063</v>
       </c>
-      <c r="M109" s="41" t="s">
+      <c r="O109" s="41" t="s">
+        <v>1919</v>
+      </c>
+      <c r="P109" s="41" t="s">
         <v>2064</v>
       </c>
-      <c r="N109" s="41" t="s">
+      <c r="Q109" s="41" t="s">
         <v>2065</v>
       </c>
-      <c r="O109" s="41" t="s">
-        <v>1921</v>
-      </c>
-      <c r="P109" s="41" t="s">
-        <v>2066</v>
-      </c>
-      <c r="Q109" s="41" t="s">
-        <v>2067</v>
-      </c>
       <c r="R109" s="41" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="S109" s="21"/>
       <c r="V109" s="7"/>
@@ -19035,49 +19033,49 @@
         <v>28</v>
       </c>
       <c r="D113" s="44" t="s">
+        <v>2066</v>
+      </c>
+      <c r="E113" s="44" t="s">
+        <v>1876</v>
+      </c>
+      <c r="F113" s="44" t="s">
+        <v>1963</v>
+      </c>
+      <c r="G113" s="44" t="s">
+        <v>2067</v>
+      </c>
+      <c r="H113" s="44" t="s">
+        <v>1869</v>
+      </c>
+      <c r="I113" s="44" t="s">
+        <v>1935</v>
+      </c>
+      <c r="J113" s="44" t="s">
+        <v>2023</v>
+      </c>
+      <c r="K113" s="44" t="s">
+        <v>2067</v>
+      </c>
+      <c r="L113" s="44" t="s">
+        <v>1876</v>
+      </c>
+      <c r="M113" s="44" t="s">
+        <v>1963</v>
+      </c>
+      <c r="N113" s="44" t="s">
+        <v>2046</v>
+      </c>
+      <c r="O113" s="44" t="s">
+        <v>1869</v>
+      </c>
+      <c r="P113" s="44" t="s">
         <v>2068</v>
       </c>
-      <c r="E113" s="44" t="s">
-        <v>1878</v>
-      </c>
-      <c r="F113" s="44" t="s">
-        <v>1965</v>
-      </c>
-      <c r="G113" s="44" t="s">
-        <v>2069</v>
-      </c>
-      <c r="H113" s="44" t="s">
-        <v>1871</v>
-      </c>
-      <c r="I113" s="44" t="s">
-        <v>1937</v>
-      </c>
-      <c r="J113" s="44" t="s">
-        <v>2025</v>
-      </c>
-      <c r="K113" s="44" t="s">
-        <v>2069</v>
-      </c>
-      <c r="L113" s="44" t="s">
-        <v>1878</v>
-      </c>
-      <c r="M113" s="44" t="s">
-        <v>1965</v>
-      </c>
-      <c r="N113" s="44" t="s">
-        <v>2048</v>
-      </c>
-      <c r="O113" s="44" t="s">
-        <v>1871</v>
-      </c>
-      <c r="P113" s="44" t="s">
-        <v>2070</v>
-      </c>
       <c r="Q113" s="44" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="R113" s="44" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="S113" s="21"/>
       <c r="V113" s="7"/>
@@ -19198,49 +19196,49 @@
         <v>29</v>
       </c>
       <c r="D117" s="41" t="s">
+        <v>2069</v>
+      </c>
+      <c r="E117" s="41" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F117" s="41" t="s">
+        <v>1938</v>
+      </c>
+      <c r="G117" s="41" t="s">
+        <v>2070</v>
+      </c>
+      <c r="H117" s="41" t="s">
+        <v>1970</v>
+      </c>
+      <c r="I117" s="41" t="s">
+        <v>1869</v>
+      </c>
+      <c r="J117" s="41" t="s">
         <v>2071</v>
       </c>
-      <c r="E117" s="41" t="s">
+      <c r="K117" s="41" t="s">
         <v>1925</v>
       </c>
-      <c r="F117" s="41" t="s">
-        <v>1940</v>
-      </c>
-      <c r="G117" s="41" t="s">
+      <c r="L117" s="41" t="s">
+        <v>1957</v>
+      </c>
+      <c r="M117" s="41" t="s">
         <v>2072</v>
       </c>
-      <c r="H117" s="41" t="s">
-        <v>1972</v>
-      </c>
-      <c r="I117" s="41" t="s">
-        <v>1871</v>
-      </c>
-      <c r="J117" s="41" t="s">
-        <v>2073</v>
-      </c>
-      <c r="K117" s="41" t="s">
+      <c r="N117" s="41" t="s">
+        <v>1869</v>
+      </c>
+      <c r="O117" s="41" t="s">
         <v>1927</v>
       </c>
-      <c r="L117" s="41" t="s">
-        <v>1959</v>
-      </c>
-      <c r="M117" s="41" t="s">
-        <v>2074</v>
-      </c>
-      <c r="N117" s="41" t="s">
-        <v>1871</v>
-      </c>
-      <c r="O117" s="41" t="s">
-        <v>1929</v>
-      </c>
       <c r="P117" s="41" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="Q117" s="41" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="R117" s="41" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="S117" s="21"/>
       <c r="V117" s="7"/>
@@ -19361,49 +19359,49 @@
         <v>30</v>
       </c>
       <c r="D121" s="41" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="E121" s="41" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="F121" s="41" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="G121" s="41" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="H121" s="41" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="I121" s="41" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="J121" s="41" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="K121" s="41" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="L121" s="41" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="M121" s="41" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="N121" s="41" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="O121" s="41" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="P121" s="41" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="Q121" s="41" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="R121" s="41" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="S121" s="21"/>
       <c r="V121" s="7"/>
@@ -19514,34 +19512,34 @@
         <v>31</v>
       </c>
       <c r="D125" s="41" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="E125" s="41" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="F125" s="41" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="G125" s="41" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="H125" s="41" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="I125" s="41" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="J125" s="41" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="K125" s="41" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="L125" s="41" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="M125" s="41" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="N125" s="41" t="s">
         <v>38</v>
